--- a/sriramModel-nelson-atypical-patientID_27-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_27-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.046710673460815</v>
+        <v>2.038874403299764</v>
       </c>
       <c r="C2">
-        <v>2.061966688128217</v>
+        <v>2.00384230021672</v>
       </c>
       <c r="D2">
-        <v>2.038950899783961</v>
+        <v>2.001781574179239</v>
       </c>
       <c r="E2">
-        <v>2.052994517796896</v>
+        <v>2.023000973709792</v>
       </c>
       <c r="F2">
-        <v>2.052174122964804</v>
+        <v>2.069615149120657</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.092751273061866</v>
+        <v>2.077215514093477</v>
       </c>
       <c r="C3">
-        <v>2.122398348304904</v>
+        <v>2.007745663764029</v>
       </c>
       <c r="D3">
-        <v>2.077209293076409</v>
+        <v>2.003633565681276</v>
       </c>
       <c r="E3">
-        <v>2.105052370045755</v>
+        <v>2.045899498526308</v>
       </c>
       <c r="F3">
-        <v>2.103243542742402</v>
+        <v>2.137477241460394</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.138138652369713</v>
+        <v>2.115054286966004</v>
       </c>
       <c r="C4">
-        <v>2.181404273327656</v>
+        <v>2.011713156579115</v>
       </c>
       <c r="D4">
-        <v>2.11480722661114</v>
+        <v>2.005559049710242</v>
       </c>
       <c r="E4">
-        <v>2.156218287226378</v>
+        <v>2.068715625855849</v>
       </c>
       <c r="F4">
-        <v>2.15326387287248</v>
+        <v>2.203662667072837</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.182889602180659</v>
+        <v>2.152421241294473</v>
       </c>
       <c r="C5">
-        <v>2.239087117763728</v>
+        <v>2.015747962294897</v>
       </c>
       <c r="D5">
-        <v>2.151775765033509</v>
+        <v>2.007561338922923</v>
       </c>
       <c r="E5">
-        <v>2.206536823574383</v>
+        <v>2.091469055910904</v>
       </c>
       <c r="F5">
-        <v>2.202287639864476</v>
+        <v>2.268244303754501</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.227020837836168</v>
+        <v>2.189346497044749</v>
       </c>
       <c r="C6">
-        <v>2.29554360473474</v>
+        <v>2.019853419093762</v>
       </c>
       <c r="D6">
-        <v>2.188145232408481</v>
+        <v>2.009643954007262</v>
       </c>
       <c r="E6">
-        <v>2.256052528279156</v>
+        <v>2.114179226578093</v>
       </c>
       <c r="F6">
-        <v>2.250364544911469</v>
+        <v>2.331292076429571</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.270548981770289</v>
+        <v>2.225859815285845</v>
       </c>
       <c r="C7">
-        <v>2.350864946298477</v>
+        <v>2.024033018973555</v>
       </c>
       <c r="D7">
-        <v>2.22394529994892</v>
+        <v>2.011810551122635</v>
       </c>
       <c r="E7">
-        <v>2.304810081279776</v>
+        <v>2.13686533128309</v>
       </c>
       <c r="F7">
-        <v>2.29754169764715</v>
+        <v>2.392872924670959</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.313490548647612</v>
+        <v>2.261990636629367</v>
       </c>
       <c r="C8">
-        <v>2.405137152611593</v>
+        <v>2.028290433595611</v>
       </c>
       <c r="D8">
-        <v>2.259205115351156</v>
+        <v>2.014064973161914</v>
       </c>
       <c r="E8">
-        <v>2.352854393763757</v>
+        <v>2.159546345828605</v>
       </c>
       <c r="F8">
-        <v>2.343863788352496</v>
+        <v>2.453051021727254</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.355861931274323</v>
+        <v>2.297768115428546</v>
       </c>
       <c r="C9">
-        <v>2.4584415406579</v>
+        <v>2.032629525662842</v>
       </c>
       <c r="D9">
-        <v>2.293953434988956</v>
+        <v>2.016411277924244</v>
       </c>
       <c r="E9">
-        <v>2.400230718704976</v>
+        <v>2.182241047721193</v>
       </c>
       <c r="F9">
-        <v>2.38937325152075</v>
+        <v>2.511888036611926</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.397679388300108</v>
+        <v>2.333221160333016</v>
       </c>
       <c r="C10">
-        <v>2.510855042183143</v>
+        <v>2.037054360785435</v>
       </c>
       <c r="D10">
-        <v>2.328218753693774</v>
+        <v>2.018853732756457</v>
       </c>
       <c r="E10">
-        <v>2.446984780102519</v>
+        <v>2.204968035082702</v>
       </c>
       <c r="F10">
-        <v>2.434110434940112</v>
+        <v>2.569443270398913</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.438959033948488</v>
+        <v>2.368378470846775</v>
       </c>
       <c r="C11">
-        <v>2.562450485903385</v>
+        <v>2.041569224770683</v>
       </c>
       <c r="D11">
-        <v>2.362029442663304</v>
+        <v>2.021396829840997</v>
       </c>
       <c r="E11">
-        <v>2.493162884348973</v>
+        <v>2.227745741381736</v>
       </c>
       <c r="F11">
-        <v>2.478113788285513</v>
+        <v>2.625773778190838</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.479716829264882</v>
+        <v>2.40326857766102</v>
       </c>
       <c r="C12">
-        <v>2.61329687712561</v>
+        <v>2.04617864856865</v>
       </c>
       <c r="D12">
-        <v>2.395413887079988</v>
+        <v>2.024045267502491</v>
       </c>
       <c r="E12">
-        <v>2.538812042178425</v>
+        <v>2.250592453550119</v>
       </c>
       <c r="F12">
-        <v>2.521420029768047</v>
+        <v>2.680934524574564</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.519968574809933</v>
+        <v>2.437919877216803</v>
       </c>
       <c r="C13">
-        <v>2.663459695232733</v>
+        <v>2.05088742168363</v>
       </c>
       <c r="D13">
-        <v>2.42840063925473</v>
+        <v>2.026804034988949</v>
       </c>
       <c r="E13">
-        <v>2.583980123824338</v>
+        <v>2.273526326715193</v>
       </c>
       <c r="F13">
-        <v>2.56406429262176</v>
+        <v>2.734978535789003</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.559729903621438</v>
+        <v>2.472360670570517</v>
       </c>
       <c r="C14">
-        <v>2.713001097300146</v>
+        <v>2.055700609056449</v>
       </c>
       <c r="D14">
-        <v>2.461018556668716</v>
+        <v>2.029678406019633</v>
       </c>
       <c r="E14">
-        <v>2.628716038412457</v>
+        <v>2.29656539575154</v>
       </c>
       <c r="F14">
-        <v>2.606080269362809</v>
+        <v>2.78795703164386</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.59901627560358</v>
+        <v>2.506619206790909</v>
       </c>
       <c r="C15">
-        <v>2.761980122883459</v>
+        <v>2.060623576983641</v>
       </c>
       <c r="D15">
-        <v>2.493296973193346</v>
+        <v>2.032673941263909</v>
       </c>
       <c r="E15">
-        <v>2.673069887390199</v>
+        <v>2.319727575273236</v>
       </c>
       <c r="F15">
-        <v>2.647500369437827</v>
+        <v>2.839919544355169</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.637842974071103</v>
+        <v>2.540723723810403</v>
       </c>
       <c r="C16">
-        <v>2.810452900301033</v>
+        <v>2.065662039382854</v>
       </c>
       <c r="D16">
-        <v>2.52526599881155</v>
+        <v>2.03579651299423</v>
       </c>
       <c r="E16">
-        <v>2.717093137774461</v>
+        <v>2.343030684513123</v>
       </c>
       <c r="F16">
-        <v>2.688355862208424</v>
+        <v>2.89091403281026</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.676225102808567</v>
+        <v>2.574702486915117</v>
       </c>
       <c r="C17">
-        <v>2.858472824893375</v>
+        <v>2.070822081621181</v>
       </c>
       <c r="D17">
-        <v>2.556956661234325</v>
+        <v>2.039052316894229</v>
       </c>
       <c r="E17">
-        <v>2.760838822360049</v>
+        <v>2.366492441802962</v>
       </c>
       <c r="F17">
-        <v>2.728677042996293</v>
+        <v>2.940986993674114</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.714177583380182</v>
+        <v>2.608583828891985</v>
       </c>
       <c r="C18">
-        <v>2.906090760806802</v>
+        <v>2.076110182771415</v>
       </c>
       <c r="D18">
-        <v>2.588401154057925</v>
+        <v>2.042447900235687</v>
       </c>
       <c r="E18">
-        <v>2.804361763739498</v>
+        <v>2.390130474723097</v>
       </c>
       <c r="F18">
-        <v>2.768493364714891</v>
+        <v>2.990183567850881</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.751715153471268</v>
+        <v>2.642396192760585</v>
       </c>
       <c r="C19">
-        <v>2.953355150435166</v>
+        <v>2.081533250722588</v>
       </c>
       <c r="D19">
-        <v>2.619633079814363</v>
+        <v>2.04599018540487</v>
       </c>
       <c r="E19">
-        <v>2.847718820416907</v>
+        <v>2.413962316339007</v>
       </c>
       <c r="F19">
-        <v>2.807833607872631</v>
+        <v>3.038547641379115</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.788852366042913</v>
+        <v>2.676168175335753</v>
       </c>
       <c r="C20">
-        <v>3.000312108674315</v>
+        <v>2.087098668178202</v>
       </c>
       <c r="D20">
-        <v>2.650687736336588</v>
+        <v>2.049686496646114</v>
       </c>
       <c r="E20">
-        <v>2.890969155519746</v>
+        <v>2.438005400445486</v>
       </c>
       <c r="F20">
-        <v>2.846726024861475</v>
+        <v>3.086121941051352</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.825603589261917</v>
+        <v>2.709928570392294</v>
       </c>
       <c r="C21">
-        <v>3.047005537028192</v>
+        <v>2.092814340911569</v>
       </c>
       <c r="D21">
-        <v>2.681602458436298</v>
+        <v>2.053544586120216</v>
       </c>
       <c r="E21">
-        <v>2.934174531437342</v>
+        <v>2.462277060966087</v>
       </c>
       <c r="F21">
-        <v>2.885198495255189</v>
+        <v>3.132948125513941</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.86198300675204</v>
+        <v>2.743706411760666</v>
       </c>
       <c r="C22">
-        <v>3.093477215354683</v>
+        <v>2.098688746434017</v>
       </c>
       <c r="D22">
-        <v>2.712416974933279</v>
+        <v>2.057572656786157</v>
       </c>
       <c r="E22">
-        <v>2.977399629361546</v>
+        <v>2.486794516591452</v>
       </c>
       <c r="F22">
-        <v>2.923278694132254</v>
+        <v>3.179066872456502</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.89800461834825</v>
+        <v>2.777531016905135</v>
       </c>
       <c r="C23">
-        <v>3.13976688556455</v>
+        <v>2.104730987210934</v>
       </c>
       <c r="D23">
-        <v>2.743173833366948</v>
+        <v>2.061779402864746</v>
       </c>
       <c r="E23">
-        <v>3.020712407616631</v>
+        <v>2.511574862152099</v>
       </c>
       <c r="F23">
-        <v>2.960994245894309</v>
+        <v>3.224517962258692</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.933682241363375</v>
+        <v>2.811432030805389</v>
       </c>
       <c r="C24">
-        <v>3.185912317263217</v>
+        <v>2.110950852442472</v>
       </c>
       <c r="D24">
-        <v>2.773918887954563</v>
+        <v>2.066174037793086</v>
       </c>
       <c r="E24">
-        <v>3.064184489772691</v>
+        <v>2.536635055807569</v>
       </c>
       <c r="F24">
-        <v>2.998372905045289</v>
+        <v>3.269340358363031</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.969029512242312</v>
+        <v>2.845439469515264</v>
       </c>
       <c r="C25">
-        <v>3.231949349802395</v>
+        <v>2.117358888529826</v>
       </c>
       <c r="D25">
-        <v>2.804701836750909</v>
+        <v>2.070766331781549</v>
       </c>
       <c r="E25">
-        <v>3.107891585393374</v>
+        <v>2.561991896276107</v>
       </c>
       <c r="F25">
-        <v>3.035442734980962</v>
+        <v>3.31357228465154</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.004059888526474</v>
+        <v>2.879583762883978</v>
       </c>
       <c r="C26">
-        <v>3.277911924303236</v>
+        <v>2.123966476896753</v>
       </c>
       <c r="D26">
-        <v>2.835576827926669</v>
+        <v>2.075566642981441</v>
       </c>
       <c r="E26">
-        <v>3.151913940619424</v>
+        <v>2.587661998626443</v>
       </c>
       <c r="F26">
-        <v>3.072232279967943</v>
+        <v>3.357251300126177</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.038786651088996</v>
+        <v>2.913895796081971</v>
       </c>
       <c r="C27">
-        <v>3.323832103527864</v>
+        <v>2.130785919935032</v>
       </c>
       <c r="D27">
-        <v>2.866603175802243</v>
+        <v>2.08058595979784</v>
       </c>
       <c r="E27">
-        <v>3.196336814530908</v>
+        <v>2.613661771940528</v>
       </c>
       <c r="F27">
-        <v>3.108770793927333</v>
+        <v>3.400414371187696</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.073222906616188</v>
+        <v>2.948406949456963</v>
       </c>
       <c r="C28">
-        <v>3.369740080153179</v>
+        <v>2.13783053727854</v>
       </c>
       <c r="D28">
-        <v>2.897846214455104</v>
+        <v>2.08583594942841</v>
       </c>
       <c r="E28">
-        <v>3.241250972979739</v>
+        <v>2.640007382160515</v>
       </c>
       <c r="F28">
-        <v>3.145088403640727</v>
+        <v>3.443097938465401</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.10738159030234</v>
+        <v>2.983149135992499</v>
       </c>
       <c r="C29">
-        <v>3.415664174052658</v>
+        <v>2.145114774270873</v>
       </c>
       <c r="D29">
-        <v>2.929378246597683</v>
+        <v>2.091328998909176</v>
       </c>
       <c r="E29">
-        <v>3.286753185833959</v>
+        <v>2.666714716361435</v>
       </c>
       <c r="F29">
-        <v>3.181216369911168</v>
+        <v>3.48533798730752</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.141275468713711</v>
+        <v>3.018154835452686</v>
       </c>
       <c r="C30">
-        <v>3.461630821651065</v>
+        <v>2.152654323798534</v>
       </c>
       <c r="D30">
-        <v>2.961279590152897</v>
+        <v>2.09707826742242</v>
       </c>
       <c r="E30">
-        <v>3.33294670464642</v>
+        <v>2.693799346866685</v>
       </c>
       <c r="F30">
-        <v>3.217187294147327</v>
+        <v>3.527170128077777</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.174917142780995</v>
+        <v>3.053457124175389</v>
       </c>
       <c r="C31">
-        <v>3.507664552562424</v>
+        <v>2.160466262755964</v>
       </c>
       <c r="D31">
-        <v>2.993639847727319</v>
+        <v>2.103097721449124</v>
       </c>
       <c r="E31">
-        <v>3.379941692534167</v>
+        <v>2.721276483311605</v>
       </c>
       <c r="F31">
-        <v>3.253035356837684</v>
+        <v>3.568629641720116</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.208319050889604</v>
+        <v>3.089089699322855</v>
       </c>
       <c r="C32">
-        <v>3.553787959734823</v>
+        <v>2.168569204994536</v>
       </c>
       <c r="D32">
-        <v>3.026559331295294</v>
+        <v>2.109402203251754</v>
       </c>
       <c r="E32">
-        <v>3.427855557559677</v>
+        <v>2.749160922275013</v>
       </c>
       <c r="F32">
-        <v>3.288796619523791</v>
+        <v>3.609751547924306</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.241493472034902</v>
+        <v>3.125086896126986</v>
       </c>
       <c r="C33">
-        <v>3.600021661803354</v>
+        <v>2.176983472976213</v>
       </c>
       <c r="D33">
-        <v>3.060150567821272</v>
+        <v>2.116007484613142</v>
       </c>
       <c r="E33">
-        <v>3.476813126202595</v>
+        <v>2.777466998387782</v>
       </c>
       <c r="F33">
-        <v>3.324509229361067</v>
+        <v>3.65057067370516</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.274452529022894</v>
+        <v>3.161483696563973</v>
       </c>
       <c r="C34">
-        <v>3.646384258874081</v>
+        <v>2.185731290364139</v>
       </c>
       <c r="D34">
-        <v>3.094540131802625</v>
+        <v>2.122930321670886</v>
       </c>
       <c r="E34">
-        <v>3.526946581196587</v>
+        <v>2.806208525457306</v>
       </c>
       <c r="F34">
-        <v>3.360213788591842</v>
+        <v>3.691121709767909</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.307208191675585</v>
+        <v>3.198315727687227</v>
       </c>
       <c r="C35">
-        <v>3.692892289328643</v>
+        <v>2.194836997725989</v>
       </c>
       <c r="D35">
-        <v>3.129870346312498</v>
+        <v>2.130188520978443</v>
       </c>
       <c r="E35">
-        <v>3.578395048817349</v>
+        <v>2.835398732687735</v>
       </c>
       <c r="F35">
-        <v>3.395953603529227</v>
+        <v>3.731439265357935</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.339772280012861</v>
+        <v>3.235619246881002</v>
       </c>
       <c r="C36">
-        <v>3.739560183159802</v>
+        <v>2.204327293555408</v>
       </c>
       <c r="D36">
-        <v>3.166300965473821</v>
+        <v>2.137800975034561</v>
       </c>
       <c r="E36">
-        <v>3.631303711540965</v>
+        <v>2.865050204274327</v>
       </c>
       <c r="F36">
-        <v>3.431775023186713</v>
+        <v>3.771557945976317</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.3721564673975</v>
+        <v>3.273431112086981</v>
       </c>
       <c r="C37">
-        <v>3.786400216540259</v>
+        <v>2.214231502792809</v>
       </c>
       <c r="D37">
-        <v>3.20401065479217</v>
+        <v>2.145787755173051</v>
       </c>
       <c r="E37">
-        <v>3.685822320405492</v>
+        <v>2.895174812191352</v>
       </c>
       <c r="F37">
-        <v>3.467727796679583</v>
+        <v>3.811512404095619</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.40437228356228</v>
+        <v>3.311788734358413</v>
       </c>
       <c r="C38">
-        <v>3.83342246824337</v>
+        <v>2.224581874737639</v>
       </c>
       <c r="D38">
-        <v>3.24319786658361</v>
+        <v>2.154170159766171</v>
       </c>
       <c r="E38">
-        <v>3.742102970498211</v>
+        <v>2.925783642951145</v>
       </c>
       <c r="F38">
-        <v>3.503865339898536</v>
+        <v>3.851337390754905</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.436431117664815</v>
+        <v>3.350730009265442</v>
       </c>
       <c r="C39">
-        <v>3.880634782654941</v>
+        <v>2.235413911569033</v>
       </c>
       <c r="D39">
-        <v>3.284080586919944</v>
+        <v>2.162970774708365</v>
       </c>
       <c r="E39">
-        <v>3.800296543246853</v>
+        <v>2.956886929386995</v>
       </c>
       <c r="F39">
-        <v>3.540245150227445</v>
+        <v>3.891067815307403</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.468344221082175</v>
+        <v>3.390293224129634</v>
       </c>
       <c r="C40">
-        <v>3.928042740722027</v>
+        <v>2.246766727540579</v>
       </c>
       <c r="D40">
-        <v>3.326894146281151</v>
+        <v>2.172213525547283</v>
       </c>
       <c r="E40">
-        <v>3.860548662299916</v>
+        <v>2.9884939790057</v>
       </c>
       <c r="F40">
-        <v>3.576929082710003</v>
+        <v>3.930738805067615</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.500122710059856</v>
+        <v>3.430516938634244</v>
       </c>
       <c r="C41">
-        <v>3.975649640894373</v>
+        <v>2.258683437101073</v>
       </c>
       <c r="D41">
-        <v>3.371885563036446</v>
+        <v>2.181923721261417</v>
       </c>
       <c r="E41">
-        <v>3.922994371075514</v>
+        <v>3.020613098005661</v>
       </c>
       <c r="F41">
-        <v>3.613983630253175</v>
+        <v>3.970385758901355</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.531777568250504</v>
+        <v>3.471439834587502</v>
       </c>
       <c r="C42">
-        <v>4.023456491181513</v>
+        <v>2.271211567394865</v>
       </c>
       <c r="D42">
-        <v>3.419304565565839</v>
+        <v>2.192128115821123</v>
       </c>
       <c r="E42">
-        <v>3.987751809338421</v>
+        <v>3.053251522462871</v>
       </c>
       <c r="F42">
-        <v>3.651480148101772</v>
+        <v>4.010044398714466</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.56331964907666</v>
+        <v>3.513100531107873</v>
       </c>
       <c r="C43">
-        <v>4.071462014584212</v>
+        <v>2.284403486387412</v>
       </c>
       <c r="D43">
-        <v>3.46938913754986</v>
+        <v>2.202854928374577</v>
       </c>
       <c r="E43">
-        <v>4.054915275783824</v>
+        <v>3.086415345601365</v>
       </c>
       <c r="F43">
-        <v>3.689494968412893</v>
+        <v>4.049750820861899</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.594759677639943</v>
+        <v>3.55553736415234</v>
       </c>
       <c r="C44">
-        <v>4.119662675118344</v>
+        <v>2.298316831733561</v>
       </c>
       <c r="D44">
-        <v>3.522345431749226</v>
+        <v>2.214133859461028</v>
       </c>
       <c r="E44">
-        <v>4.124548369619616</v>
+        <v>3.12010945222547</v>
       </c>
       <c r="F44">
-        <v>3.728109386382402</v>
+        <v>4.089541545233352</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.626108252620861</v>
+        <v>3.598788126182737</v>
       </c>
       <c r="C45">
-        <v>4.168052716343963</v>
+        <v>2.31301491685174</v>
       </c>
       <c r="D45">
-        <v>3.578323966854064</v>
+        <v>2.225996083176835</v>
       </c>
       <c r="E45">
-        <v>4.196677880504698</v>
+        <v>3.154337454681994</v>
       </c>
       <c r="F45">
-        <v>3.76740943087277</v>
+        <v>4.129453560190655</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.657375847922597</v>
+        <v>3.642889764795306</v>
       </c>
       <c r="C46">
-        <v>4.216624220045648</v>
+        <v>2.328567078456356</v>
       </c>
       <c r="D46">
-        <v>3.637395124801477</v>
+        <v>2.238474230928669</v>
       </c>
       <c r="E46">
-        <v>4.271289223136903</v>
+        <v>3.189101633833379</v>
       </c>
       <c r="F46">
-        <v>3.807485347095626</v>
+        <v>4.169524362980542</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.688572813769472</v>
+        <v>3.687878041250014</v>
       </c>
       <c r="C47">
-        <v>4.265367181115497</v>
+        <v>2.345048912210703</v>
       </c>
       <c r="D47">
-        <v>3.699529619297259</v>
+        <v>2.251602326909582</v>
       </c>
       <c r="E47">
-        <v>4.348324380884932</v>
+        <v>3.224402886462593</v>
       </c>
       <c r="F47">
-        <v>3.848430698683699</v>
+        <v>4.209791995164391</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.719709377570818</v>
+        <v>3.733787149639741</v>
       </c>
       <c r="C48">
-        <v>4.314269601854004</v>
+        <v>2.362542335575871</v>
       </c>
       <c r="D48">
-        <v>3.764591106645211</v>
+        <v>2.265415687315755</v>
       </c>
       <c r="E48">
-        <v>4.427682848770825</v>
+        <v>3.260240680456176</v>
       </c>
       <c r="F48">
-        <v>3.890341218008985</v>
+        <v>4.250295070552597</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.750795644433413</v>
+        <v>3.780649288483165</v>
       </c>
       <c r="C49">
-        <v>4.363317609389014</v>
+        <v>2.381135368721303</v>
       </c>
       <c r="D49">
-        <v>3.83234396841008</v>
+        <v>2.279950758783138</v>
       </c>
       <c r="E49">
-        <v>4.50922572724631</v>
+        <v>3.296613018664911</v>
       </c>
       <c r="F49">
-        <v>3.933312491435932</v>
+        <v>4.291072793711589</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.781841597605419</v>
+        <v>3.828494219216178</v>
       </c>
       <c r="C50">
-        <v>4.412495582892992</v>
+        <v>2.4009215185386</v>
       </c>
       <c r="D50">
-        <v>3.902475608767579</v>
+        <v>2.295244972511461</v>
       </c>
       <c r="E50">
-        <v>4.592782298399125</v>
+        <v>3.333516412558342</v>
       </c>
       <c r="F50">
-        <v>3.977437548981276</v>
+        <v>4.332164965793897</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.812857097897103</v>
+        <v>3.877348792092667</v>
       </c>
       <c r="C51">
-        <v>4.461786299301135</v>
+        <v>2.421998638438968</v>
       </c>
       <c r="D51">
-        <v>3.974628696769871</v>
+        <v>2.311336514940556</v>
       </c>
       <c r="E51">
-        <v>4.678158663630949</v>
+        <v>3.370945867001601</v>
       </c>
       <c r="F51">
-        <v>4.02280369983107</v>
+        <v>4.373611975956617</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.843851883046714</v>
+        <v>3.927236454154121</v>
       </c>
       <c r="C52">
-        <v>4.511171082500707</v>
+        <v>2.444467110869778</v>
       </c>
       <c r="D52">
-        <v>4.048434299075635</v>
+        <v>2.328263854173428</v>
       </c>
       <c r="E52">
-        <v>4.765147014311593</v>
+        <v>3.408894877364223</v>
       </c>
       <c r="F52">
-        <v>4.069488639852607</v>
+        <v>4.415454772239966</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.874835566958381</v>
+        <v>3.978176762637982</v>
       </c>
       <c r="C53">
-        <v>4.560629990716815</v>
+        <v>2.468426923917212</v>
       </c>
       <c r="D53">
-        <v>4.123539561095198</v>
+        <v>2.34606536782678</v>
       </c>
       <c r="E53">
-        <v>4.853534652316032</v>
+        <v>3.447355439894104</v>
       </c>
       <c r="F53">
-        <v>4.117556015726893</v>
+        <v>4.457734807071039</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.905817648135912</v>
+        <v>4.030184914033388</v>
       </c>
       <c r="C54">
-        <v>4.610142131188919</v>
+        <v>2.493974139406182</v>
       </c>
       <c r="D54">
-        <v>4.199626412179234</v>
+        <v>2.364778906992664</v>
       </c>
       <c r="E54">
-        <v>4.943112112352101</v>
+        <v>3.486318076070411</v>
       </c>
       <c r="F54">
-        <v>4.167051628244987</v>
+        <v>4.500493951590694</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.936807518446625</v>
+        <v>4.083271306590515</v>
       </c>
       <c r="C55">
-        <v>4.659685793530094</v>
+        <v>2.521196273884262</v>
       </c>
       <c r="D55">
-        <v>4.276420930911316</v>
+        <v>2.384441214607555</v>
       </c>
       <c r="E55">
-        <v>5.033679445970019</v>
+        <v>3.525771871453078</v>
       </c>
       <c r="F55">
-        <v>4.217999972676189</v>
+        <v>4.543774372688062</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.967814451456156</v>
+        <v>4.137441151206608</v>
       </c>
       <c r="C56">
-        <v>4.70923866452377</v>
+        <v>2.550166738446835</v>
       </c>
       <c r="D56">
-        <v>4.353694908390611</v>
+        <v>2.40508722612563</v>
       </c>
       <c r="E56">
-        <v>5.125050569656318</v>
+        <v>3.565704529248827</v>
       </c>
       <c r="F56">
-        <v>4.27040020880506</v>
+        <v>4.587618364613412</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.998847603845964</v>
+        <v>4.192694156700844</v>
       </c>
       <c r="C57">
-        <v>4.758777924612175</v>
+        <v>2.580938970381717</v>
       </c>
       <c r="D57">
-        <v>4.431262623201748</v>
+        <v>2.426749321826116</v>
       </c>
       <c r="E57">
-        <v>5.217055647851477</v>
+        <v>3.606102438397084</v>
       </c>
       <c r="F57">
-        <v>4.324223831907034</v>
+        <v>4.632068125432014</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.029916006356291</v>
+        <v>4.249024300416114</v>
       </c>
       <c r="C58">
-        <v>4.80828039250936</v>
+        <v>2.61354081891336</v>
       </c>
       <c r="D58">
-        <v>4.508975361990935</v>
+        <v>2.449456493766217</v>
       </c>
       <c r="E58">
-        <v>5.309542127442352</v>
+        <v>3.646950754037647</v>
       </c>
       <c r="F58">
-        <v>4.37941404148326</v>
+        <v>4.677165470697554</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.061028558003361</v>
+        <v>4.306419699939601</v>
       </c>
       <c r="C59">
-        <v>4.857722680620885</v>
+        <v>2.647970003154927</v>
       </c>
       <c r="D59">
-        <v>4.586715236325666</v>
+        <v>2.473233543182755</v>
       </c>
       <c r="E59">
-        <v>5.402374742241069</v>
+        <v>3.688233496321917</v>
       </c>
       <c r="F59">
-        <v>4.435887169156092</v>
+        <v>4.722951476976605</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.092194018945228</v>
+        <v>4.364862599805353</v>
       </c>
       <c r="C60">
-        <v>4.907081327450605</v>
+        <v>2.684191526641663</v>
       </c>
       <c r="D60">
-        <v>4.664389257578956</v>
+        <v>2.498100177535138</v>
       </c>
       <c r="E60">
-        <v>5.495434699973229</v>
+        <v>3.729933653530276</v>
       </c>
       <c r="F60">
-        <v>4.493536088001828</v>
+        <v>4.769466049496561</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.123421003718402</v>
+        <v>4.424329470515234</v>
       </c>
       <c r="C61">
-        <v>4.956332952464052</v>
+        <v>2.722137731994022</v>
       </c>
       <c r="D61">
-        <v>4.74192421114932</v>
+        <v>2.524070175967281</v>
       </c>
       <c r="E61">
-        <v>5.588618456727698</v>
+        <v>3.772033296113531</v>
       </c>
       <c r="F61">
-        <v>4.552235199562248</v>
+        <v>4.816747404996237</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.154717973099536</v>
+        <v>4.484791232530052</v>
       </c>
       <c r="C62">
-        <v>5.005454404060533</v>
+        <v>2.761711365120599</v>
       </c>
       <c r="D62">
-        <v>4.81926234322068</v>
+        <v>2.551150610304681</v>
       </c>
       <c r="E62">
-        <v>5.681836248463782</v>
+        <v>3.814513700523301</v>
       </c>
       <c r="F62">
-        <v>4.611846358628264</v>
+        <v>4.864831472540189</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.186093226184796</v>
+        <v>4.546213588221849</v>
       </c>
       <c r="C63">
-        <v>5.054422877475327</v>
+        <v>2.802791039648594</v>
       </c>
       <c r="D63">
-        <v>4.896357895998176</v>
+        <v>2.5793412027635</v>
       </c>
       <c r="E63">
-        <v>5.7750105160316</v>
+        <v>3.857355476213274</v>
       </c>
       <c r="F63">
-        <v>4.672225016378655</v>
+        <v>4.913751214003221</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.217554892482442</v>
+        <v>4.608557457312108</v>
       </c>
       <c r="C64">
-        <v>5.103216042230891</v>
+        <v>2.845238604045794</v>
       </c>
       <c r="D64">
-        <v>4.973174386244479</v>
+        <v>2.608633850050652</v>
       </c>
       <c r="E64">
-        <v>5.868074399406942</v>
+        <v>3.90053869375943</v>
       </c>
       <c r="F64">
-        <v>4.733225926617893</v>
+        <v>4.963535875829195</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.249110923026668</v>
+        <v>4.671779501679182</v>
       </c>
       <c r="C65">
-        <v>5.151812161590044</v>
+        <v>2.888907081729328</v>
       </c>
       <c r="D65">
-        <v>5.049682530047097</v>
+        <v>2.639012323488311</v>
       </c>
       <c r="E65">
-        <v>5.960970283219804</v>
+        <v>3.944043014029163</v>
       </c>
       <c r="F65">
-        <v>4.794707939953382</v>
+        <v>5.014210182006491</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.280769079886869</v>
+        <v>4.735832714580659</v>
       </c>
       <c r="C66">
-        <v>5.200190189517964</v>
+        <v>2.933648173252363</v>
       </c>
       <c r="D66">
-        <v>5.125858612318363</v>
+        <v>2.67045223213775</v>
       </c>
       <c r="E66">
-        <v>6.053648573151206</v>
+        <v>3.987847814355256</v>
       </c>
       <c r="F66">
-        <v>4.856537667403907</v>
+        <v>5.06579349913032</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.312536925217557</v>
+        <v>4.800667061586832</v>
       </c>
       <c r="C67">
-        <v>5.24832985422496</v>
+        <v>2.979318523941593</v>
       </c>
       <c r="D67">
-        <v>5.201683257917683</v>
+        <v>2.702921251472692</v>
       </c>
       <c r="E67">
-        <v>6.146066531154238</v>
+        <v>4.031932309821997</v>
       </c>
       <c r="F67">
-        <v>4.918591912027892</v>
+        <v>5.11829900135309</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.344421810630427</v>
+        <v>4.866230143807033</v>
       </c>
       <c r="C68">
-        <v>5.296211735956525</v>
+        <v>3.025784310419563</v>
       </c>
       <c r="D68">
-        <v>5.277140501762568</v>
+        <v>2.736379574998984</v>
       </c>
       <c r="E68">
-        <v>6.238187257706826</v>
+        <v>4.076275668373189</v>
       </c>
       <c r="F68">
-        <v>4.980759033688778</v>
+        <v>5.17173287292737</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.376430867316984</v>
+        <v>4.932467866588242</v>
       </c>
       <c r="C69">
-        <v>5.343817330781162</v>
+        <v>3.072924155810583</v>
       </c>
       <c r="D69">
-        <v>5.352217076953628</v>
+        <v>2.770780624551803</v>
       </c>
       <c r="E69">
-        <v>6.329978850129212</v>
+        <v>4.120857118419431</v>
       </c>
       <c r="F69">
-        <v>5.042939446142591</v>
+        <v>5.22609359219807</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.40857099433076</v>
+        <v>4.999325092177366</v>
       </c>
       <c r="C70">
-        <v>5.391129112055864</v>
+        <v>3.120630453404294</v>
       </c>
       <c r="D70">
-        <v>5.426901875037792</v>
+        <v>2.806071953786478</v>
       </c>
       <c r="E70">
-        <v>6.421413680501293</v>
+        <v>4.16565604725956</v>
       </c>
       <c r="F70">
-        <v>5.105045437892803</v>
+        <v>5.281371345086822</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.440848846179962</v>
+        <v>5.066746260149862</v>
       </c>
       <c r="C71">
-        <v>5.438130551925247</v>
+        <v>3.16880959466116</v>
       </c>
       <c r="D71">
-        <v>5.501185534697543</v>
+        <v>2.842196317837097</v>
       </c>
       <c r="E71">
-        <v>6.512467762630309</v>
+        <v>4.210652090643417</v>
       </c>
       <c r="F71">
-        <v>5.167000556944003</v>
+        <v>5.337547615709902</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.473270820162458</v>
+        <v>5.134675959663043</v>
       </c>
       <c r="C72">
-        <v>5.484806150456811</v>
+        <v>3.217381336163925</v>
       </c>
       <c r="D72">
-        <v>5.575060128426596</v>
+        <v>2.879092807913989</v>
       </c>
       <c r="E72">
-        <v>6.603120230089551</v>
+        <v>4.255825212039516</v>
       </c>
       <c r="F72">
-        <v>5.228738727609836</v>
+        <v>5.394594982100732</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.50584304330424</v>
+        <v>5.203059445198062</v>
       </c>
       <c r="C73">
-        <v>5.531141458122941</v>
+        <v>3.266277674709191</v>
       </c>
       <c r="D73">
-        <v>5.648518918439938</v>
+        <v>2.916698004940249</v>
       </c>
       <c r="E73">
-        <v>6.693352894583641</v>
+        <v>4.301155772497708</v>
       </c>
       <c r="F73">
-        <v>5.290203236920703</v>
+        <v>5.452477160931438</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.538571359766104</v>
+        <v>5.271843088978931</v>
       </c>
       <c r="C74">
-        <v>5.57712308483243</v>
+        <v>3.315441504745765</v>
       </c>
       <c r="D74">
-        <v>5.721556163554112</v>
+        <v>2.954947160476037</v>
       </c>
       <c r="E74">
-        <v>6.78314987259956</v>
+        <v>4.346624590567362</v>
       </c>
       <c r="F74">
-        <v>5.351345690447043</v>
+        <v>5.51114931096994</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.571461316952387</v>
+        <v>5.340974762969567</v>
       </c>
       <c r="C75">
-        <v>5.622738696333701</v>
+        <v>3.364825184309731</v>
       </c>
       <c r="D75">
-        <v>5.794166975750786</v>
+        <v>2.993775267937103</v>
       </c>
       <c r="E75">
-        <v>6.872497271099737</v>
+        <v>4.392212992815116</v>
       </c>
       <c r="F75">
-        <v>5.412124998999038</v>
+        <v>5.570558597436019</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.604518153392091</v>
+        <v>5.41040415372172</v>
       </c>
       <c r="C76">
-        <v>5.667977004261331</v>
+        <v>3.414389164843968</v>
       </c>
       <c r="D76">
-        <v>5.86634720859978</v>
+        <v>3.033118051950642</v>
       </c>
       <c r="E76">
-        <v>6.961382923034292</v>
+        <v>4.437902855730607</v>
       </c>
       <c r="F76">
-        <v>5.472506436555448</v>
+        <v>5.630644992824419</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.637746783243899</v>
+        <v>5.480083011643264</v>
       </c>
       <c r="C77">
-        <v>5.71282775107946</v>
+        <v>3.464100727310413</v>
       </c>
       <c r="D77">
-        <v>5.938093364348086</v>
+        <v>3.072912738703273</v>
       </c>
       <c r="E77">
-        <v>7.049796165668903</v>
+        <v>4.483676638845905</v>
       </c>
       <c r="F77">
-        <v>5.532460785677896</v>
+        <v>5.691342284108852</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.671151783515102</v>
+        <v>5.549965349261211</v>
       </c>
       <c r="C78">
-        <v>5.757281690132221</v>
+        <v>3.513932866147685</v>
       </c>
       <c r="D78">
-        <v>6.009402514786784</v>
+        <v>3.113098786741583</v>
       </c>
       <c r="E78">
-        <v>7.137727651013823</v>
+        <v>4.529517410285701</v>
       </c>
       <c r="F78">
-        <v>5.591963574092216</v>
+        <v>5.75257924517647</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.704737381031446</v>
+        <v>5.620007570138203</v>
       </c>
       <c r="C79">
-        <v>5.80133055964972</v>
+        <v>3.563863319905759</v>
       </c>
       <c r="D79">
-        <v>6.080272240414606</v>
+        <v>3.153618404391641</v>
       </c>
       <c r="E79">
-        <v>7.225169187587906</v>
+        <v>4.575408865416723</v>
       </c>
       <c r="F79">
-        <v>5.650994410961309</v>
+        <v>5.814280908538946</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.738507437652562</v>
+        <v>5.690168541690267</v>
       </c>
       <c r="C80">
-        <v>5.844967052325832</v>
+        <v>3.613873746787541</v>
       </c>
       <c r="D80">
-        <v>6.150700581695792</v>
+        <v>3.194416938967514</v>
       </c>
       <c r="E80">
-        <v>7.312113604232725</v>
+        <v>4.621335340457435</v>
       </c>
       <c r="F80">
-        <v>5.709536419858654</v>
+        <v>5.876369877418062</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.772465440353699</v>
+        <v>5.760409628100949</v>
       </c>
       <c r="C81">
-        <v>5.888184782041606</v>
+        <v>3.663949037270236</v>
       </c>
       <c r="D81">
-        <v>6.22068599678173</v>
+        <v>3.235443121968649</v>
       </c>
       <c r="E81">
-        <v>7.398554635664891</v>
+        <v>4.667281819283434</v>
       </c>
       <c r="F81">
-        <v>5.76757573967999</v>
+        <v>5.938767621385478</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.806614483942297</v>
+        <v>5.830694692460595</v>
       </c>
       <c r="C82">
-        <v>5.930978248320996</v>
+        <v>3.714076734249249</v>
       </c>
       <c r="D82">
-        <v>6.290227324510131</v>
+        <v>3.276649209119677</v>
       </c>
       <c r="E82">
-        <v>7.484486824283501</v>
+        <v>4.713233933516262</v>
       </c>
       <c r="F82">
-        <v>5.825101098374591</v>
+        <v>6.001395694793704</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.840957265748439</v>
+        <v>5.900990069548736</v>
       </c>
       <c r="C83">
-        <v>5.973342798751394</v>
+        <v>3.76424656032009</v>
       </c>
       <c r="D83">
-        <v>6.359323752907031</v>
+        <v>3.317991028787998</v>
       </c>
       <c r="E83">
-        <v>7.569905433855759</v>
+        <v>4.759177960616971</v>
       </c>
       <c r="F83">
-        <v>5.882103450239246</v>
+        <v>6.064176893860838</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.87549606569766</v>
+        <v>5.971264510084136</v>
       </c>
       <c r="C84">
-        <v>6.015274589884384</v>
+        <v>3.814450026992301</v>
       </c>
       <c r="D84">
-        <v>6.427974791812129</v>
+        <v>3.359427943124312</v>
       </c>
       <c r="E84">
-        <v>7.654806375532703</v>
+        <v>4.805100817572035</v>
       </c>
       <c r="F84">
-        <v>5.938575670424654</v>
+        <v>6.12703622080804</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.910232743074309</v>
+        <v>6.041489104311682</v>
       </c>
       <c r="C85">
-        <v>6.056770547344297</v>
+        <v>3.864680111509039</v>
       </c>
       <c r="D85">
-        <v>6.496180248828667</v>
+        <v>3.400922747823645</v>
       </c>
       <c r="E85">
-        <v>7.739186146166621</v>
+        <v>4.850990051792013</v>
       </c>
       <c r="F85">
-        <v>5.994512291031818</v>
+        <v>6.189901688242155</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.945168736707373</v>
+        <v>6.111637187674861</v>
       </c>
       <c r="C86">
-        <v>6.097828317210324</v>
+        <v>3.914930996291188</v>
       </c>
       <c r="D86">
-        <v>6.563940133395893</v>
+        <v>3.442441538139176</v>
       </c>
       <c r="E86">
-        <v>7.823041655415147</v>
+        <v>4.896833829528984</v>
       </c>
       <c r="F86">
-        <v>6.049909268538479</v>
+        <v>6.252704973264475</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.980305016149134</v>
+        <v>6.181684240424351</v>
       </c>
       <c r="C87">
-        <v>6.13844626395519</v>
+        <v>3.965197853672827</v>
       </c>
       <c r="D87">
-        <v>6.631254937332995</v>
+        <v>3.483953532929971</v>
       </c>
       <c r="E87">
-        <v>7.90637065277746</v>
+        <v>4.942620921503522</v>
       </c>
       <c r="F87">
-        <v>6.104763839074498</v>
+        <v>6.31538189407719</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.015642103850094</v>
+        <v>6.251607781057332</v>
       </c>
       <c r="C88">
-        <v>6.178623376902108</v>
+        <v>4.015476669805669</v>
       </c>
       <c r="D88">
-        <v>6.698125161635954</v>
+        <v>3.525430866068918</v>
       </c>
       <c r="E88">
-        <v>7.989170988917865</v>
+        <v>4.98834068683783</v>
       </c>
       <c r="F88">
-        <v>6.159074272654828</v>
+        <v>6.377872791221942</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.051180078012907</v>
+        <v>6.321387254778642</v>
       </c>
       <c r="C89">
-        <v>6.218359250443844</v>
+        <v>4.065764105102612</v>
       </c>
       <c r="D89">
-        <v>6.764551605372111</v>
+        <v>3.566848416301113</v>
       </c>
       <c r="E89">
-        <v>8.071440995290112</v>
+        <v>5.033983055736229</v>
       </c>
       <c r="F89">
-        <v>6.212839781319258</v>
+        <v>6.440122666851554</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.086918587162572</v>
+        <v>6.391003919805684</v>
       </c>
       <c r="C90">
-        <v>6.257654047580857</v>
+        <v>4.116057372678153</v>
       </c>
       <c r="D90">
-        <v>6.830535270340054</v>
+        <v>3.608183602186378</v>
       </c>
       <c r="E90">
-        <v>8.153179382749022</v>
+        <v>5.07953851116195</v>
       </c>
       <c r="F90">
-        <v>6.266060416334061</v>
+        <v>6.502081282637569</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.122856777040431</v>
+        <v>6.460440734159208</v>
       </c>
       <c r="C91">
-        <v>6.296508463386608</v>
+        <v>4.166354138378499</v>
       </c>
       <c r="D91">
-        <v>6.896077356262595</v>
+        <v>3.649416169305046</v>
       </c>
       <c r="E91">
-        <v>8.234385217753019</v>
+        <v>5.124998069984446</v>
       </c>
       <c r="F91">
-        <v>6.318736910076389</v>
+        <v>6.56370314044753</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.158993314153419</v>
+        <v>6.529682244878432</v>
       </c>
       <c r="C92">
-        <v>6.334923698091999</v>
+        <v>4.216652446481397</v>
       </c>
       <c r="D92">
-        <v>6.961179236296196</v>
+        <v>3.690527992533731</v>
       </c>
       <c r="E92">
-        <v>8.315057864583869</v>
+        <v>5.170353263083362</v>
       </c>
       <c r="F92">
-        <v>6.370870643164643</v>
+        <v>6.624947372533228</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.195326434372719</v>
+        <v>6.598714480288959</v>
       </c>
       <c r="C93">
-        <v>6.372901420623725</v>
+        <v>4.266950658742911</v>
       </c>
       <c r="D93">
-        <v>7.025842445868329</v>
+        <v>3.731502854685343</v>
       </c>
       <c r="E93">
-        <v>8.395196973713638</v>
+        <v>5.215596115531609</v>
       </c>
       <c r="F93">
-        <v>6.422463548659024</v>
+        <v>6.685777594396706</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.231853940419199</v>
+        <v>6.66752484644612</v>
       </c>
       <c r="C94">
-        <v>6.410443726124587</v>
+        <v>4.317247400909942</v>
       </c>
       <c r="D94">
-        <v>7.090068683779121</v>
+        <v>3.772326286909365</v>
       </c>
       <c r="E94">
-        <v>8.474802477134093</v>
+        <v>5.260719126515815</v>
       </c>
       <c r="F94">
-        <v>6.473518043967142</v>
+        <v>6.746161666032518</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.268573169825283</v>
+        <v>6.736102027974233</v>
       </c>
       <c r="C95">
-        <v>6.447553101443944</v>
+        <v>4.367541517139429</v>
       </c>
       <c r="D95">
-        <v>7.153859794351897</v>
+        <v>3.812985430445079</v>
       </c>
       <c r="E95">
-        <v>8.55387455907643</v>
+        <v>5.30571524939288</v>
       </c>
       <c r="F95">
-        <v>6.524036966210899</v>
+        <v>6.80607146241242</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.305480996499313</v>
+        <v>6.804435893854106</v>
       </c>
       <c r="C96">
-        <v>6.484232392890526</v>
+        <v>4.417832032674936</v>
       </c>
       <c r="D96">
-        <v>7.217217752283593</v>
+        <v>3.853468876643576</v>
       </c>
       <c r="E96">
-        <v>8.632413631969575</v>
+        <v>5.350577871933203</v>
       </c>
       <c r="F96">
-        <v>6.574023516257787</v>
+        <v>6.865482615501829</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.342573814112535</v>
+        <v>6.872517408497398</v>
       </c>
       <c r="C97">
-        <v>6.520484776851736</v>
+        <v>4.468118124101818</v>
       </c>
       <c r="D97">
-        <v>7.280144654373425</v>
+        <v>3.893766526269192</v>
       </c>
       <c r="E97">
-        <v>8.710420318948522</v>
+        <v>5.395300796829667</v>
       </c>
       <c r="F97">
-        <v>6.623481216574141</v>
+        <v>6.924374242482097</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.379847580014934</v>
+        <v>6.940338547842009</v>
       </c>
       <c r="C98">
-        <v>6.556313736912071</v>
+        <v>4.51839909569112</v>
       </c>
       <c r="D98">
-        <v>7.342642711863641</v>
+        <v>3.933869454230984</v>
       </c>
       <c r="E98">
-        <v>8.787895442288161</v>
+        <v>5.439878222593033</v>
       </c>
       <c r="F98">
-        <v>6.672413874957649</v>
+        <v>6.982728675724934</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.417297843766707</v>
+        <v>7.007892221121699</v>
       </c>
       <c r="C99">
-        <v>6.591723033055156</v>
+        <v>4.568674359359957</v>
       </c>
       <c r="D99">
-        <v>7.404714240514433</v>
+        <v>3.973769788140507</v>
       </c>
       <c r="E99">
-        <v>8.864840008609717</v>
+        <v>5.484304724895198</v>
       </c>
       <c r="F99">
-        <v>6.720825550254046</v>
+        <v>7.040531191228487</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.454919749147843</v>
+        <v>7.075172197624124</v>
       </c>
       <c r="C100">
-        <v>6.62671667383043</v>
+        <v>4.618943418104824</v>
       </c>
       <c r="D100">
-        <v>7.466361654872207</v>
+        <v>4.013460606347902</v>
       </c>
       <c r="E100">
-        <v>8.941255198921416</v>
+        <v>5.528575238426575</v>
       </c>
       <c r="F100">
-        <v>6.768720520439132</v>
+        <v>7.097769752859433</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.492708046314937</v>
+        <v>7.142173038357902</v>
       </c>
       <c r="C101">
-        <v>6.661298891460183</v>
+        <v>4.669205851206191</v>
       </c>
       <c r="D101">
-        <v>7.527587464375587</v>
+        <v>4.05293584312808</v>
       </c>
       <c r="E101">
-        <v>9.01714235096436</v>
+        <v>5.572685039318413</v>
       </c>
       <c r="F101">
-        <v>6.816103253913995</v>
+        <v>7.154434765907543</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.530657102662625</v>
+        <v>7.208890034184454</v>
       </c>
       <c r="C102">
-        <v>6.695474138960837</v>
+        <v>4.719461302285651</v>
       </c>
       <c r="D102">
-        <v>7.588394254859187</v>
+        <v>4.092190200917074</v>
       </c>
       <c r="E102">
-        <v>9.092502971469361</v>
+        <v>5.616629728153464</v>
       </c>
       <c r="F102">
-        <v>6.862978384998555</v>
+        <v>7.210518844621775</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.568760927139789</v>
+        <v>7.275319143838739</v>
       </c>
       <c r="C103">
-        <v>6.729247044878375</v>
+        <v>4.769709469682861</v>
       </c>
       <c r="D103">
-        <v>7.648784698716803</v>
+        <v>4.131219075382219</v>
       </c>
       <c r="E103">
-        <v>9.167338686143054</v>
+        <v>5.660405213583108</v>
       </c>
       <c r="F103">
-        <v>6.909350691673558</v>
+        <v>7.266016591729318</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.607013193257114</v>
+        <v>7.34145694650987</v>
       </c>
       <c r="C104">
-        <v>6.762622416593468</v>
+        <v>4.819950098367694</v>
       </c>
       <c r="D104">
-        <v>7.708761526467141</v>
+        <v>4.170018482774885</v>
       </c>
       <c r="E104">
-        <v>9.241651277082314</v>
+        <v>5.704007696565193</v>
       </c>
       <c r="F104">
-        <v>6.955225075951553</v>
+        <v>7.320924397469267</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.645407212275253</v>
+        <v>7.40730057125166</v>
       </c>
       <c r="C105">
-        <v>6.795605195630765</v>
+        <v>4.870182973169921</v>
       </c>
       <c r="D105">
-        <v>7.768327535846121</v>
+        <v>4.208584995669661</v>
       </c>
       <c r="E105">
-        <v>9.315442623309465</v>
+        <v>5.747433655260186</v>
       </c>
       <c r="F105">
-        <v>7.000606546083452</v>
+        <v>7.375240254232834</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.683936061662062</v>
+        <v>7.472847678887561</v>
       </c>
       <c r="C106">
-        <v>6.828200452763036</v>
+        <v>4.920407913491908</v>
       </c>
       <c r="D106">
-        <v>7.827485577772324</v>
+        <v>4.246915687000911</v>
       </c>
       <c r="E106">
-        <v>9.388714726995271</v>
+        <v>5.790679830977493</v>
       </c>
       <c r="F106">
-        <v>7.045500195851194</v>
+        <v>7.428963583368718</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.722592413478149</v>
+        <v>7.538096392893957</v>
       </c>
       <c r="C107">
-        <v>6.860413359043367</v>
+        <v>4.970624766594527</v>
       </c>
       <c r="D107">
-        <v>7.886238558411462</v>
+        <v>4.285008077359967</v>
       </c>
       <c r="E107">
-        <v>9.461469686515299</v>
+        <v>5.833743213105605</v>
       </c>
       <c r="F107">
-        <v>7.089911203007331</v>
+        <v>7.482095078674281</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5.761368826990279</v>
+        <v>7.603045279380201</v>
       </c>
       <c r="C108">
-        <v>6.892249189587647</v>
+        <v>5.020833405094906</v>
       </c>
       <c r="D108">
-        <v>7.944589429181134</v>
+        <v>4.322860092270251</v>
       </c>
       <c r="E108">
-        <v>9.53370970360762</v>
+        <v>5.876621027224963</v>
       </c>
       <c r="F108">
-        <v>7.133844799238287</v>
+        <v>7.534636561365508</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5.800257488797456</v>
+        <v>7.667693305784357</v>
       </c>
       <c r="C109">
-        <v>6.923713283394042</v>
+        <v>5.0710337223191</v>
       </c>
       <c r="D109">
-        <v>8.002541186074467</v>
+        <v>4.360470020561493</v>
       </c>
       <c r="E109">
-        <v>9.605437066423791</v>
+        <v>5.91931072097016</v>
       </c>
       <c r="F109">
-        <v>7.177306283107841</v>
+        <v>7.586590850765925</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.839250467583909</v>
+        <v>7.732039798389308</v>
       </c>
       <c r="C110">
-        <v>6.954811066857692</v>
+        <v>5.121225628848814</v>
       </c>
       <c r="D110">
-        <v>8.060096862041171</v>
+        <v>4.397836476945336</v>
       </c>
       <c r="E110">
-        <v>9.676654152845778</v>
+        <v>5.961809952534874</v>
       </c>
       <c r="F110">
-        <v>7.220300982108388</v>
+        <v>7.63796164839803</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.878339623517241</v>
+        <v>7.796084423591756</v>
       </c>
       <c r="C111">
-        <v>6.985548009406037</v>
+        <v>5.171409053703056</v>
       </c>
       <c r="D111">
-        <v>8.117259523970306</v>
+        <v>4.434958369424844</v>
       </c>
       <c r="E111">
-        <v>9.747363417883037</v>
+        <v>6.004116580998561</v>
       </c>
       <c r="F111">
-        <v>7.262834256853809</v>
+        <v>7.688753429582711</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.917516654482588</v>
+        <v>7.859827149929923</v>
       </c>
       <c r="C112">
-        <v>7.015929636487549</v>
+        <v>5.221583937050253</v>
       </c>
       <c r="D112">
-        <v>8.174032267405725</v>
+        <v>4.471834868429262</v>
       </c>
       <c r="E112">
-        <v>9.817567389519541</v>
+        <v>6.046228651791271</v>
       </c>
       <c r="F112">
-        <v>7.304911487208009</v>
+        <v>7.738971347551327</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.956773140969911</v>
+        <v>7.923268223575659</v>
       </c>
       <c r="C113">
-        <v>7.045961503685543</v>
+        <v>5.271750233549336</v>
       </c>
       <c r="D113">
-        <v>8.230418212202162</v>
+        <v>4.508465381995151</v>
       </c>
       <c r="E113">
-        <v>9.887268662511326</v>
+        <v>6.088144390634783</v>
       </c>
       <c r="F113">
-        <v>7.346538068130912</v>
+        <v>7.788621145960961</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.99610054795467</v>
+        <v>7.986408149638511</v>
       </c>
       <c r="C114">
-        <v>7.075649190947163</v>
+        <v>5.321907907080212</v>
       </c>
       <c r="D114">
-        <v>8.286420503612986</v>
+        <v>4.544849531447175</v>
       </c>
       <c r="E114">
-        <v>9.956469891402394</v>
+        <v>6.129862190335897</v>
       </c>
       <c r="F114">
-        <v>7.387719398659543</v>
+        <v>7.837709080495442</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.035490244620537</v>
+        <v>8.049247659936036</v>
       </c>
       <c r="C115">
-        <v>7.104998295469923</v>
+        <v>5.372056930839522</v>
       </c>
       <c r="D115">
-        <v>8.342042299778559</v>
+        <v>4.580987129897912</v>
       </c>
       <c r="E115">
-        <v>10.02517378875459</v>
+        <v>6.171380602769208</v>
       </c>
       <c r="F115">
-        <v>7.428460881542995</v>
+        <v>7.886241853949083</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6.074933550011399</v>
+        <v>8.111787703474464</v>
       </c>
       <c r="C116">
-        <v>7.134014422043325</v>
+        <v>5.422197286008173</v>
       </c>
       <c r="D116">
-        <v>8.397286777826038</v>
+        <v>4.616878166449517</v>
       </c>
       <c r="E116">
-        <v>10.09338311657544</v>
+        <v>6.21269833043268</v>
       </c>
       <c r="F116">
-        <v>7.46876791468339</v>
+        <v>7.934226552613716</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6.114421729929954</v>
+        <v>8.17402942156278</v>
       </c>
       <c r="C117">
-        <v>7.162703160537907</v>
+        <v>5.472328959768124</v>
       </c>
       <c r="D117">
-        <v>8.452157127535525</v>
+        <v>4.652522778840697</v>
       </c>
       <c r="E117">
-        <v>10.16110068674956</v>
+        <v>6.253814215899293</v>
       </c>
       <c r="F117">
-        <v>7.508645885478598</v>
+        <v>7.981670576079554</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6.153946038014766</v>
+        <v>8.235974130069462</v>
       </c>
       <c r="C118">
-        <v>7.191070106892454</v>
+        <v>5.522451946099945</v>
       </c>
       <c r="D118">
-        <v>8.506656543908425</v>
+        <v>4.687921255455786</v>
       </c>
       <c r="E118">
-        <v>10.22832935309236</v>
+        <v>6.294727236790095</v>
       </c>
       <c r="F118">
-        <v>7.548100166320314</v>
+        <v>8.028581602810636</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6.193497732746875</v>
+        <v>8.297623308186209</v>
       </c>
       <c r="C119">
-        <v>7.219120849225636</v>
+        <v>5.572566243507247</v>
       </c>
       <c r="D119">
-        <v>8.560788236761125</v>
+        <v>4.723073991977784</v>
       </c>
       <c r="E119">
-        <v>10.29507201040486</v>
+        <v>6.335436495731028</v>
       </c>
       <c r="F119">
-        <v>7.587136111833919</v>
+        <v>8.074967524545889</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6.233068098694105</v>
+        <v>8.358978577660974</v>
       </c>
       <c r="C120">
-        <v>7.246860913956082</v>
+        <v>5.622671855728449</v>
       </c>
       <c r="D120">
-        <v>8.614555413187709</v>
+        <v>4.757981517602875</v>
       </c>
       <c r="E120">
-        <v>10.36133158903208</v>
+        <v>6.375941214589479</v>
       </c>
       <c r="F120">
-        <v>7.625759051127367</v>
+        <v>8.120836427593154</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6.272648466466531</v>
+        <v>8.420041693817206</v>
       </c>
       <c r="C121">
-        <v>7.274295834507198</v>
+        <v>5.672768790407171</v>
       </c>
       <c r="D121">
-        <v>8.667961287751647</v>
+        <v>4.792644441847694</v>
       </c>
       <c r="E121">
-        <v>10.42711105189417</v>
+        <v>6.416240727851913</v>
       </c>
       <c r="F121">
-        <v>7.663974280064167</v>
+        <v>8.166196548534485</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6.312230237914349</v>
+        <v>8.4808145325367</v>
       </c>
       <c r="C122">
-        <v>7.301431129016962</v>
+        <v>5.722857058839334</v>
       </c>
       <c r="D122">
-        <v>8.721009074129382</v>
+        <v>4.827063486231927</v>
       </c>
       <c r="E122">
-        <v>10.49241339265433</v>
+        <v>6.456334474607751</v>
       </c>
       <c r="F122">
-        <v>7.701787077486423</v>
+        <v>8.211056238747407</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6.351804898127387</v>
+        <v>8.541299075150718</v>
       </c>
       <c r="C123">
-        <v>7.328272224987437</v>
+        <v>5.772936675630128</v>
       </c>
       <c r="D123">
-        <v>8.773701983360949</v>
+        <v>4.861239439863652</v>
       </c>
       <c r="E123">
-        <v>10.55724162860352</v>
+        <v>6.496221994687031</v>
       </c>
       <c r="F123">
-        <v>7.73920267916455</v>
+        <v>8.255423955290468</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6.391364029997908</v>
+        <v>8.601497403801693</v>
       </c>
       <c r="C124">
-        <v>7.354824548268677</v>
+        <v>5.823007658051496</v>
       </c>
       <c r="D124">
-        <v>8.826043225840941</v>
+        <v>4.89517317831643</v>
       </c>
       <c r="E124">
-        <v>10.6215987995042</v>
+        <v>6.535902921023029</v>
       </c>
       <c r="F124">
-        <v>7.776226269213899</v>
+        <v>8.299308203551719</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6.430899344444087</v>
+        <v>8.661411689458276</v>
       </c>
       <c r="C125">
-        <v>7.381093498392184</v>
+        <v>5.873070025990435</v>
       </c>
       <c r="D125">
-        <v>8.878036003484786</v>
+        <v>4.928865636333585</v>
       </c>
       <c r="E125">
-        <v>10.68548797293427</v>
+        <v>6.575376975249448</v>
       </c>
       <c r="F125">
-        <v>7.812863020285922</v>
+        <v>8.342717545865767</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.47040266648052</v>
+        <v>8.721044181487882</v>
       </c>
       <c r="C126">
-        <v>7.407084385167046</v>
+        <v>5.923123801470412</v>
       </c>
       <c r="D126">
-        <v>8.929683514592496</v>
+        <v>4.962317813341106</v>
       </c>
       <c r="E126">
-        <v>10.74891222280165</v>
+        <v>6.614643962704165</v>
       </c>
       <c r="F126">
-        <v>7.849118055724547</v>
+        <v>8.385660548733005</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6.509865986212437</v>
+        <v>8.780397195707122</v>
       </c>
       <c r="C127">
-        <v>7.432802495189127</v>
+        <v>5.97316900850472</v>
       </c>
       <c r="D127">
-        <v>8.980988946736852</v>
+        <v>4.995530758399349</v>
       </c>
       <c r="E127">
-        <v>10.81187464016301</v>
+        <v>6.653703766281235</v>
       </c>
       <c r="F127">
-        <v>7.884996432943127</v>
+        <v>8.428145796957704</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.549281428535844</v>
+        <v>8.83947312482193</v>
       </c>
       <c r="C128">
-        <v>7.458253072947465</v>
+        <v>6.023205672962971</v>
       </c>
       <c r="D128">
-        <v>9.031955478546617</v>
+        <v>5.028505571706026</v>
       </c>
       <c r="E128">
-        <v>10.87437834256067</v>
+        <v>6.692556343684747</v>
       </c>
       <c r="F128">
-        <v>7.920503192617772</v>
+        <v>8.470181844237208</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.588641306956259</v>
+        <v>8.898274394244748</v>
       </c>
       <c r="C129">
-        <v>7.483441285626963</v>
+        <v>6.073233822211232</v>
       </c>
       <c r="D129">
-        <v>9.082586279413839</v>
+        <v>5.061243392808466</v>
       </c>
       <c r="E129">
-        <v>10.9364264399036</v>
+        <v>6.731201721477706</v>
       </c>
       <c r="F129">
-        <v>7.955643329157936</v>
+        <v>8.511777233184143</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.627938093842403</v>
+        <v>8.956803503338557</v>
       </c>
       <c r="C130">
-        <v>7.50837225706165</v>
+        <v>6.123253485235804</v>
       </c>
       <c r="D130">
-        <v>9.132884503661447</v>
+        <v>5.093745402889065</v>
       </c>
       <c r="E130">
-        <v>10.99802205604402</v>
+        <v>6.76963999193872</v>
       </c>
       <c r="F130">
-        <v>7.990421768733114</v>
+        <v>8.552940452130438</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6.667164462903437</v>
+        <v>9.015062981073207</v>
       </c>
       <c r="C131">
-        <v>7.533051057014486</v>
+        <v>6.173264691958743</v>
       </c>
       <c r="D131">
-        <v>9.182853296208418</v>
+        <v>5.126012814489086</v>
       </c>
       <c r="E131">
-        <v>11.05916833395333</v>
+        <v>6.807871310443681</v>
       </c>
       <c r="F131">
-        <v>8.024843406406207</v>
+        <v>8.593679951427093</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6.70631327308119</v>
+        <v>9.073055392792623</v>
       </c>
       <c r="C132">
-        <v>7.557482682227474</v>
+        <v>6.223267473805293</v>
       </c>
       <c r="D132">
-        <v>9.232495784701044</v>
+        <v>5.158046873209244</v>
       </c>
       <c r="E132">
-        <v>11.11986840576504</v>
+        <v>6.845895887814442</v>
       </c>
       <c r="F132">
-        <v>8.058913090801944</v>
+        <v>8.634004112766553</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6.7453775859282</v>
+        <v>9.130783356036858</v>
       </c>
       <c r="C133">
-        <v>7.5816720768294</v>
+        <v>6.273261862985353</v>
       </c>
       <c r="D133">
-        <v>9.281815083272317</v>
+        <v>5.189848850102221</v>
       </c>
       <c r="E133">
-        <v>11.18012541212559</v>
+        <v>6.883713989839047</v>
       </c>
       <c r="F133">
-        <v>8.092635608502027</v>
+        <v>8.673921255631686</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6.784350673125858</v>
+        <v>9.188249496446506</v>
       </c>
       <c r="C134">
-        <v>7.60562412648434</v>
+        <v>6.323247892233341</v>
       </c>
       <c r="D134">
-        <v>9.330814290545298</v>
+        <v>5.221420041368562</v>
       </c>
       <c r="E134">
-        <v>11.23994250231036</v>
+        <v>6.921325936633712</v>
       </c>
       <c r="F134">
-        <v>8.126015702358897</v>
+        <v>8.713439620567209</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6.823226007610602</v>
+        <v>9.245456482636525</v>
       </c>
       <c r="C135">
-        <v>7.629343639645204</v>
+        <v>6.373225596088626</v>
       </c>
       <c r="D135">
-        <v>9.379496487040361</v>
+        <v>5.252761763834557</v>
       </c>
       <c r="E135">
-        <v>11.29932281655595</v>
+        <v>6.958732088452269</v>
       </c>
       <c r="F135">
-        <v>8.159058065099311</v>
+        <v>8.752567366910574</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6.861997289479077</v>
+        <v>9.302406994571403</v>
       </c>
       <c r="C136">
-        <v>7.652835370256808</v>
+        <v>6.423195008721467</v>
       </c>
       <c r="D136">
-        <v>9.427864737823409</v>
+        <v>5.283875352853779</v>
       </c>
       <c r="E136">
-        <v>11.35826949693505</v>
+        <v>6.995932859283482</v>
       </c>
       <c r="F136">
-        <v>8.191767331599863</v>
+        <v>8.791312567321107</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6.900658419606208</v>
+        <v>9.359103732233871</v>
       </c>
       <c r="C137">
-        <v>7.676104013046783</v>
+        <v>6.473156165447291</v>
       </c>
       <c r="D137">
-        <v>9.475922087946619</v>
+        <v>5.314762162175994</v>
       </c>
       <c r="E137">
-        <v>11.41678568612806</v>
+        <v>7.032928700596297</v>
       </c>
       <c r="F137">
-        <v>8.224148087614132</v>
+        <v>8.829683199225668</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6.939203534235396</v>
+        <v>9.41554941316522</v>
       </c>
       <c r="C138">
-        <v>7.699154182679101</v>
+        <v>6.523109102463993</v>
       </c>
       <c r="D138">
-        <v>9.523671565090158</v>
+        <v>5.345423557307073</v>
       </c>
       <c r="E138">
-        <v>11.4748745175086</v>
+        <v>7.069720100835795</v>
       </c>
       <c r="F138">
-        <v>8.256204867531336</v>
+        <v>8.867687148387674</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6.977626972015115</v>
+        <v>9.471746759641542</v>
       </c>
       <c r="C139">
-        <v>7.721990437776206</v>
+        <v>6.57305385592798</v>
       </c>
       <c r="D139">
-        <v>9.57111617732215</v>
+        <v>5.375860912207646</v>
       </c>
       <c r="E139">
-        <v>11.53253912118664</v>
+        <v>7.106307595146549</v>
       </c>
       <c r="F139">
-        <v>8.287942146331311</v>
+        <v>8.905332195414921</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.015923306949211</v>
+        <v>9.527698510549088</v>
       </c>
       <c r="C140">
-        <v>7.744617276427639</v>
+        <v>6.622990462995615</v>
       </c>
       <c r="D140">
-        <v>9.618258912433133</v>
+        <v>5.406075623001756</v>
       </c>
       <c r="E140">
-        <v>11.58978262355676</v>
+        <v>7.142691744079429</v>
       </c>
       <c r="F140">
-        <v>8.319364349411828</v>
+        <v>8.942626024282085</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.054087320504214</v>
+        <v>9.583407402311467</v>
       </c>
       <c r="C141">
-        <v>7.767039119370701</v>
+        <v>6.672918960981196</v>
       </c>
       <c r="D141">
-        <v>9.665102739332786</v>
+        <v>5.436069080864113</v>
       </c>
       <c r="E141">
-        <v>11.64660813855391</v>
+        <v>7.178873145623863</v>
       </c>
       <c r="F141">
-        <v>8.350475852424985</v>
+        <v>8.979576209761948</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.092114020287125</v>
+        <v>9.638876178675892</v>
       </c>
       <c r="C142">
-        <v>7.789260328279148</v>
+        <v>6.72283938762788</v>
       </c>
       <c r="D142">
-        <v>9.711650604763902</v>
+        <v>5.465842683141354</v>
       </c>
       <c r="E142">
-        <v>11.70301877390375</v>
+        <v>7.214852429468154</v>
       </c>
       <c r="F142">
-        <v>8.381280969271074</v>
+        <v>9.016190224439553</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.129998628207916</v>
+        <v>9.694107586595608</v>
       </c>
       <c r="C143">
-        <v>7.811285202375283</v>
+        <v>6.772751781103553</v>
       </c>
       <c r="D143">
-        <v>9.757905435937205</v>
+        <v>5.495397851666101</v>
       </c>
       <c r="E143">
-        <v>11.7590176307701</v>
+        <v>7.250630250319976</v>
       </c>
       <c r="F143">
-        <v>8.411783964545849</v>
+        <v>9.052475430927627</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.167736579990975</v>
+        <v>9.749104366670643</v>
       </c>
       <c r="C144">
-        <v>7.833117968383218</v>
+        <v>6.822656179761541</v>
       </c>
       <c r="D144">
-        <v>9.803870137928618</v>
+        <v>5.524735991809509</v>
       </c>
       <c r="E144">
-        <v>11.81460779480827</v>
+        <v>7.286207294231343</v>
       </c>
       <c r="F144">
-        <v>8.441989053948989</v>
+        <v>9.088439087529164</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7.205323528328417</v>
+        <v>9.803869264752601</v>
       </c>
       <c r="C145">
-        <v>7.854762791707449</v>
+        <v>6.872552622303647</v>
       </c>
       <c r="D145">
-        <v>9.849547594347792</v>
+        <v>5.553858517050989</v>
       </c>
       <c r="E145">
-        <v>11.86979234325738</v>
+        <v>7.321584268399836</v>
       </c>
       <c r="F145">
-        <v>8.471900392721798</v>
+        <v>9.124088335362307</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.242755329509934</v>
+        <v>9.858405015881381</v>
       </c>
       <c r="C146">
-        <v>7.876223774668743</v>
+        <v>6.922441147632727</v>
       </c>
       <c r="D146">
-        <v>9.894940667634348</v>
+        <v>5.582766856452815</v>
       </c>
       <c r="E146">
-        <v>11.92457434384615</v>
+        <v>7.356761904529791</v>
       </c>
       <c r="F146">
-        <v>8.501522086189697</v>
+        <v>9.159430211947576</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7.280028053654042</v>
+        <v>9.912714353021341</v>
       </c>
       <c r="C147">
-        <v>7.897504950360402</v>
+        <v>6.972321794786457</v>
       </c>
       <c r="D147">
-        <v>9.940052197198517</v>
+        <v>5.611462425820297</v>
       </c>
       <c r="E147">
-        <v>11.97895684741849</v>
+        <v>7.391740957687409</v>
       </c>
       <c r="F147">
-        <v>8.530858189890766</v>
+        <v>9.194471646510296</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.317137966220557</v>
+        <v>9.96680000227618</v>
       </c>
       <c r="C148">
-        <v>7.918610290576394</v>
+        <v>7.022194603158835</v>
       </c>
       <c r="D148">
-        <v>9.984885001357469</v>
+        <v>5.63994664621357</v>
       </c>
       <c r="E148">
-        <v>12.03294289400575</v>
+        <v>7.426522199796417</v>
       </c>
       <c r="F148">
-        <v>8.559912702606805</v>
+        <v>9.229219442998717</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.354081539239636</v>
+        <v>10.02066467921675</v>
       </c>
       <c r="C149">
-        <v>7.939543705184577</v>
+        <v>7.072059612118921</v>
       </c>
       <c r="D149">
-        <v>10.02944187507443</v>
+        <v>5.668220943885045</v>
       </c>
       <c r="E149">
-        <v>12.08653551124756</v>
+        <v>7.461106425021552</v>
       </c>
       <c r="F149">
-        <v>8.588689572487931</v>
+        <v>9.26368031516358</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7.390855432903356</v>
+        <v>10.07431109318645</v>
       </c>
       <c r="C150">
-        <v>7.960309036634944</v>
+        <v>7.12191686125577</v>
       </c>
       <c r="D150">
-        <v>10.07372559122729</v>
+        <v>5.696286737875194</v>
       </c>
       <c r="E150">
-        <v>12.139737709408</v>
+        <v>7.495494443296343</v>
       </c>
       <c r="F150">
-        <v>8.617192697351634</v>
+        <v>9.297860858331108</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7.427456503825546</v>
+        <v>10.12774193956437</v>
       </c>
       <c r="C151">
-        <v>7.980910067557533</v>
+        <v>7.171766390337525</v>
       </c>
       <c r="D151">
-        <v>10.11773890023608</v>
+        <v>5.724145447842305</v>
       </c>
       <c r="E151">
-        <v>12.19255248572476</v>
+        <v>7.529687079904031</v>
       </c>
       <c r="F151">
-        <v>8.645425921117516</v>
+        <v>9.331767549471598</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7.463881791217568</v>
+        <v>10.18095990453735</v>
       </c>
       <c r="C152">
-        <v>8.001350520527685</v>
+        <v>7.221608239132874</v>
       </c>
       <c r="D152">
-        <v>10.16148452924611</v>
+        <v>5.751798492609762</v>
       </c>
       <c r="E152">
-        <v>12.24498282284941</v>
+        <v>7.563685178445692</v>
       </c>
       <c r="F152">
-        <v>8.673393037267203</v>
+        <v>9.365406781205042</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7.500128517443665</v>
+        <v>10.23396766096657</v>
       </c>
       <c r="C153">
-        <v>8.021634052969913</v>
+        <v>7.271442447589743</v>
       </c>
       <c r="D153">
-        <v>10.20496518337984</v>
+        <v>5.779247285588916</v>
       </c>
       <c r="E153">
-        <v>12.29703168538208</v>
+        <v>7.597489593055661</v>
       </c>
       <c r="F153">
-        <v>8.701097790002546</v>
+        <v>9.39878482016805</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7.536194081803778</v>
+        <v>10.28676786757134</v>
       </c>
       <c r="C154">
-        <v>8.041764264086046</v>
+        <v>7.321269055683512</v>
       </c>
       <c r="D154">
-        <v>10.24818354419308</v>
+        <v>5.806493238251388</v>
       </c>
       <c r="E154">
-        <v>12.34870202307635</v>
+        <v>7.631101192571418</v>
       </c>
       <c r="F154">
-        <v>8.728543870889066</v>
+        <v>9.431907831264054</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7.572076054641172</v>
+        <v>10.33936317137376</v>
       </c>
       <c r="C155">
-        <v>8.061744694729883</v>
+        <v>7.371088103452111</v>
       </c>
       <c r="D155">
-        <v>10.2911422708378</v>
+        <v>5.833537759409119</v>
       </c>
       <c r="E155">
-        <v>12.39999676931908</v>
+        <v>7.664520858082304</v>
       </c>
       <c r="F155">
-        <v>8.755734922195078</v>
+        <v>9.464781883172304</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7.6077721744065</v>
+        <v>10.39175620192267</v>
       </c>
       <c r="C156">
-        <v>8.081578823935377</v>
+        <v>7.420899631002548</v>
       </c>
       <c r="D156">
-        <v>10.3338439995384</v>
+        <v>5.860382250684319</v>
       </c>
       <c r="E156">
-        <v>12.45091883877204</v>
+        <v>7.697749479928234</v>
       </c>
       <c r="F156">
-        <v>8.782674538648035</v>
+        <v>9.49741293255075</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7.64328033934318</v>
+        <v>10.44394957589149</v>
       </c>
       <c r="C157">
-        <v>8.10127007407567</v>
+        <v>7.470703678443201</v>
       </c>
       <c r="D157">
-        <v>10.37629134342228</v>
+        <v>5.887028111309871</v>
       </c>
       <c r="E157">
-        <v>12.50147113038129</v>
+        <v>7.730787960845891</v>
       </c>
       <c r="F157">
-        <v>8.809366263484513</v>
+        <v>9.529806836483202</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7.678598608783616</v>
+        <v>10.49594589285898</v>
       </c>
       <c r="C158">
-        <v>8.120821811032055</v>
+        <v>7.520500285925949</v>
       </c>
       <c r="D158">
-        <v>10.41848689323689</v>
+        <v>5.913476736166528</v>
       </c>
       <c r="E158">
-        <v>12.55165652569112</v>
+        <v>7.763637210643671</v>
       </c>
       <c r="F158">
-        <v>8.835813592136232</v>
+        <v>9.561969352600846</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7.713725195171201</v>
+        <v>10.54774773609666</v>
       </c>
       <c r="C159">
-        <v>8.14023734227446</v>
+        <v>7.570289493608197</v>
       </c>
       <c r="D159">
-        <v>10.46043321643292</v>
+        <v>5.939729512296854</v>
       </c>
       <c r="E159">
-        <v>12.60147788660061</v>
+        <v>7.796298148184552</v>
       </c>
       <c r="F159">
-        <v>8.862019973762338</v>
+        <v>9.593906136088604</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7.748658449411607</v>
+        <v>10.59935767332015</v>
       </c>
       <c r="C160">
-        <v>8.159519920308787</v>
+        <v>7.62007134162866</v>
       </c>
       <c r="D160">
-        <v>10.50213285811978</v>
+        <v>5.965787823587871</v>
       </c>
       <c r="E160">
-        <v>12.65093805843435</v>
+        <v>7.828771700860937</v>
       </c>
       <c r="F160">
-        <v>8.88798880806895</v>
+        <v>9.625622745176194</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7.783396875592917</v>
+        <v>10.65077825351567</v>
       </c>
       <c r="C161">
-        <v>8.178672743056806</v>
+        <v>7.669845870163685</v>
       </c>
       <c r="D161">
-        <v>10.54358834050929</v>
+        <v>5.991653047890276</v>
       </c>
       <c r="E161">
-        <v>12.70003986812641</v>
+        <v>7.861058801235044</v>
       </c>
       <c r="F161">
-        <v>8.913723448368097</v>
+        <v>9.657124641613034</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7.817939113967257</v>
+        <v>10.70201200985299</v>
       </c>
       <c r="C162">
-        <v>8.197698953319343</v>
+        <v>7.719613119329565</v>
       </c>
       <c r="D162">
-        <v>10.58480216318608</v>
+        <v>6.017326555675647</v>
       </c>
       <c r="E162">
-        <v>12.74878612283884</v>
+        <v>7.893160389635336</v>
       </c>
       <c r="F162">
-        <v>8.939227202542698</v>
+        <v>9.688417189254723</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7.852283933728813</v>
+        <v>10.75306145646071</v>
       </c>
       <c r="C163">
-        <v>8.216601641016668</v>
+        <v>7.769373129238879</v>
       </c>
       <c r="D163">
-        <v>10.62577680343189</v>
+        <v>6.042809712810191</v>
       </c>
       <c r="E163">
-        <v>12.79717961230195</v>
+        <v>7.92507741116293</v>
       </c>
       <c r="F163">
-        <v>8.964503331522094</v>
+        <v>9.719505660898552</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7.886430230507822</v>
+        <v>10.80392908985694</v>
       </c>
       <c r="C164">
-        <v>8.235383843869009</v>
+        <v>7.819125939990514</v>
       </c>
       <c r="D164">
-        <v>10.66651471576968</v>
+        <v>6.068103878070015</v>
       </c>
       <c r="E164">
-        <v>12.84522310715453</v>
+        <v>7.956810815481979</v>
       </c>
       <c r="F164">
-        <v>8.98955505117776</v>
+        <v>9.75039523604956</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7.920377028924009</v>
+        <v>10.85461738875795</v>
       </c>
       <c r="C165">
-        <v>8.254048547189047</v>
+        <v>7.868871591620828</v>
       </c>
       <c r="D165">
-        <v>10.70701833275207</v>
+        <v>6.093210403145986</v>
       </c>
       <c r="E165">
-        <v>12.8929193581539</v>
+        <v>7.988361558041731</v>
       </c>
       <c r="F165">
-        <v>9.014385533040448</v>
+        <v>9.781091001809557</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7.954123469778843</v>
+        <v>10.9051288124152</v>
       </c>
       <c r="C166">
-        <v>8.27259868578493</v>
+        <v>7.918610124149136</v>
       </c>
       <c r="D166">
-        <v>10.74729006441648</v>
+        <v>6.118130633971933</v>
       </c>
       <c r="E166">
-        <v>12.94027109792889</v>
+        <v>8.019730596560469</v>
       </c>
       <c r="F166">
-        <v>9.03899790387128</v>
+        <v>9.81159795871727</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7.987668806964537</v>
+        <v>10.95546580267243</v>
       </c>
       <c r="C167">
-        <v>8.291037144691915</v>
+        <v>7.968341577535181</v>
       </c>
       <c r="D167">
-        <v>10.78733229882032</v>
+        <v>6.142865908719288</v>
       </c>
       <c r="E167">
-        <v>12.98728103952333</v>
+        <v>8.05091889290984</v>
       </c>
       <c r="F167">
-        <v>9.063395246819923</v>
+        <v>9.841921017767158</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>8.021012403728161</v>
+        <v>11.005630781488</v>
       </c>
       <c r="C168">
-        <v>8.309366759291249</v>
+        <v>8.018065991685997</v>
       </c>
       <c r="D168">
-        <v>10.82714740212203</v>
+        <v>6.16741755834881</v>
       </c>
       <c r="E168">
-        <v>13.03395187603465</v>
+        <v>8.081927411933997</v>
       </c>
       <c r="F168">
-        <v>9.087580602117479</v>
+        <v>9.872065004086823</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8.054153727053158</v>
+        <v>11.05562615243889</v>
       </c>
       <c r="C169">
-        <v>8.327590316850749</v>
+        <v>8.067783406461656</v>
       </c>
       <c r="D169">
-        <v>10.86673771845747</v>
+        <v>6.191786908997925</v>
       </c>
       <c r="E169">
-        <v>13.08028628208283</v>
+        <v>8.112757120003424</v>
       </c>
       <c r="F169">
-        <v>9.111556967063022</v>
+        <v>9.90203465891342</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8.087092350597125</v>
+        <v>11.10545430026675</v>
       </c>
       <c r="C170">
-        <v>8.34571055727965</v>
+        <v>8.117493861647253</v>
       </c>
       <c r="D170">
-        <v>10.90610557048444</v>
+        <v>6.215975276658483</v>
       </c>
       <c r="E170">
-        <v>13.1262869123581</v>
+        <v>8.14340898665426</v>
       </c>
       <c r="F170">
-        <v>9.135327296911369</v>
+        <v>9.931834639916227</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8.119827941887747</v>
+        <v>11.15511759008264</v>
       </c>
       <c r="C171">
-        <v>8.363730173606475</v>
+        <v>8.167197396969877</v>
       </c>
       <c r="D171">
-        <v>10.94525325909407</v>
+        <v>6.239983970223171</v>
       </c>
       <c r="E171">
-        <v>13.17195640155567</v>
+        <v>8.173883981830564</v>
       </c>
       <c r="F171">
-        <v>9.158894505727421</v>
+        <v>9.96146952336926</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8.152360256612639</v>
+        <v>11.20461836863196</v>
       </c>
       <c r="C172">
-        <v>8.381651813059412</v>
+        <v>8.216894052085483</v>
       </c>
       <c r="D172">
-        <v>10.98418306387827</v>
+        <v>6.263814290463205</v>
       </c>
       <c r="E172">
-        <v>13.21729736570266</v>
+        <v>8.204183076973404</v>
       </c>
       <c r="F172">
-        <v>9.182261466259048</v>
+        <v>9.990943805200017</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8.184689142411232</v>
+        <v>11.25395896279427</v>
       </c>
       <c r="C173">
-        <v>8.399478077794722</v>
+        <v>8.266583866568284</v>
       </c>
       <c r="D173">
-        <v>11.02289724316633</v>
+        <v>6.287467531969703</v>
       </c>
       <c r="E173">
-        <v>13.26231240071157</v>
+        <v>8.23430724475139</v>
       </c>
       <c r="F173">
-        <v>9.205431010911271</v>
+        <v>10.02026190326916</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8.216814541705423</v>
+        <v>11.30314168068129</v>
       </c>
       <c r="C174">
-        <v>8.417211525878454</v>
+        <v>8.316266879929307</v>
       </c>
       <c r="D174">
-        <v>11.06139803413154</v>
+        <v>6.310944986426914</v>
       </c>
       <c r="E174">
-        <v>13.30700408257338</v>
+        <v>8.264257457404758</v>
       </c>
       <c r="F174">
-        <v>9.228405932303408</v>
+        <v>10.04942815815702</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8.248736463722633</v>
+        <v>11.3521688111892</v>
       </c>
       <c r="C175">
-        <v>8.434854671836778</v>
+        <v>8.365943131584938</v>
       </c>
       <c r="D175">
-        <v>11.09968765321603</v>
+        <v>6.334247928674333</v>
       </c>
       <c r="E175">
-        <v>13.35137496850125</v>
+        <v>8.294034688020815</v>
       </c>
       <c r="F175">
-        <v>9.251188983646371</v>
+        <v>10.0784468347516</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>8.280454998307253</v>
+        <v>11.40104262387988</v>
       </c>
       <c r="C176">
-        <v>8.452409987408105</v>
+        <v>8.415612660873078</v>
       </c>
       <c r="D176">
-        <v>11.13776829580158</v>
+        <v>6.35737762832494</v>
       </c>
       <c r="E176">
-        <v>13.3954275955528</v>
+        <v>8.323639909082996</v>
       </c>
       <c r="F176">
-        <v>9.273782879388119</v>
+        <v>10.10732212421637</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8.311970321307134</v>
+        <v>11.44976536991567</v>
       </c>
       <c r="C177">
-        <v>8.469879902826124</v>
+        <v>8.465275507050054</v>
       </c>
       <c r="D177">
-        <v>11.17564213663261</v>
+        <v>6.380335346295603</v>
       </c>
       <c r="E177">
-        <v>13.4391644810238</v>
+        <v>8.353074092386521</v>
       </c>
       <c r="F177">
-        <v>9.296190295610042</v>
+        <v>10.13605814477543</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8.343282669263536</v>
+        <v>11.49833928035716</v>
       </c>
       <c r="C178">
-        <v>8.487266807044916</v>
+        <v>8.51493170927403</v>
       </c>
       <c r="D178">
-        <v>11.21331133027237</v>
+        <v>6.403122342137941</v>
       </c>
       <c r="E178">
-        <v>13.48258812334687</v>
+        <v>8.382338209594629</v>
       </c>
       <c r="F178">
-        <v>9.31841387076973</v>
+        <v>10.1646589435682</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8.374392345022487</v>
+        <v>11.54676656712277</v>
       </c>
       <c r="C179">
-        <v>8.504573048493153</v>
+        <v>8.564581306619489</v>
       </c>
       <c r="D179">
-        <v>11.25077801106162</v>
+        <v>6.425739866406822</v>
       </c>
       <c r="E179">
-        <v>13.52570100089727</v>
+        <v>8.411433230577916</v>
       </c>
       <c r="F179">
-        <v>9.340456206146804</v>
+        <v>10.1931284982608</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8.405299720522143</v>
+        <v>11.59504942411357</v>
       </c>
       <c r="C180">
-        <v>8.521800936505064</v>
+        <v>8.614224338062678</v>
       </c>
       <c r="D180">
-        <v>11.28804429271636</v>
+        <v>6.44818915424702</v>
       </c>
       <c r="E180">
-        <v>13.56850557249036</v>
+        <v>8.440360124318694</v>
       </c>
       <c r="F180">
-        <v>9.362319866110063</v>
+        <v>10.22147071758523</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>8.436005234488885</v>
+        <v>11.64319002659507</v>
       </c>
       <c r="C181">
-        <v>8.538952741370402</v>
+        <v>8.66386084248286</v>
       </c>
       <c r="D181">
-        <v>11.32511226907319</v>
+        <v>6.470471435943331</v>
       </c>
       <c r="E181">
-        <v>13.61100427808999</v>
+        <v>8.4691198583345</v>
       </c>
       <c r="F181">
-        <v>9.384007379030555</v>
+        <v>10.24968944385192</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>8.466509372634603</v>
+        <v>11.69119052897556</v>
       </c>
       <c r="C182">
-        <v>8.556030695075071</v>
+        <v>8.713490858665727</v>
       </c>
       <c r="D182">
-        <v>11.36198401506699</v>
+        <v>6.492587933242365</v>
       </c>
       <c r="E182">
-        <v>13.65319953776738</v>
+        <v>8.497713397982626</v>
       </c>
       <c r="F182">
-        <v>9.405521237675835</v>
+        <v>10.27778845387187</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>8.496812678299463</v>
+        <v>11.73905306711949</v>
       </c>
       <c r="C183">
-        <v>8.573036992783537</v>
+        <v>8.763114425290986</v>
       </c>
       <c r="D183">
-        <v>11.39866158529177</v>
+        <v>6.514539868806634</v>
       </c>
       <c r="E183">
-        <v>13.69509375226523</v>
+        <v>8.526141707293666</v>
       </c>
       <c r="F183">
-        <v>9.426863899416157</v>
+        <v>10.3057714592504</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8.526915761727754</v>
+        <v>11.78677976110464</v>
       </c>
       <c r="C184">
-        <v>8.589973792781205</v>
+        <v>8.812731580942739</v>
       </c>
       <c r="D184">
-        <v>11.43514701488256</v>
+        <v>6.536328448290431</v>
       </c>
       <c r="E184">
-        <v>13.73668930358148</v>
+        <v>8.554405747587888</v>
       </c>
       <c r="F184">
-        <v>9.448037787122045</v>
+        <v>10.33364210974839</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8.556819266870574</v>
+        <v>11.83437270993335</v>
       </c>
       <c r="C185">
-        <v>8.606843217171452</v>
+        <v>8.862342364100284</v>
       </c>
       <c r="D185">
-        <v>11.47144231986548</v>
+        <v>6.557954870255077</v>
       </c>
       <c r="E185">
-        <v>13.77798855403518</v>
+        <v>8.582506478210199</v>
       </c>
       <c r="F185">
-        <v>9.469045289605537</v>
+        <v>10.36140399316923</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>8.586523888572644</v>
+        <v>11.88183399368728</v>
       </c>
       <c r="C186">
-        <v>8.623647353431458</v>
+        <v>8.91194681313066</v>
       </c>
       <c r="D186">
-        <v>11.50754949788691</v>
+        <v>6.579420326187648</v>
       </c>
       <c r="E186">
-        <v>13.81899384688652</v>
+        <v>8.610444856393746</v>
       </c>
       <c r="F186">
-        <v>9.489888761774305</v>
+        <v>10.38906063613472</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8.616030372552425</v>
+        <v>11.92916567443266</v>
       </c>
       <c r="C187">
-        <v>8.640388254226956</v>
+        <v>8.961544966292283</v>
       </c>
       <c r="D187">
-        <v>11.54347052692504</v>
+        <v>6.600725999890448</v>
       </c>
       <c r="E187">
-        <v>13.85970750682165</v>
+        <v>8.638221835847741</v>
       </c>
       <c r="F187">
-        <v>9.510570525479835</v>
+        <v>10.41661550727737</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8.645339508174452</v>
+        <v>11.97636979874591</v>
       </c>
       <c r="C188">
-        <v>8.657067938066621</v>
+        <v>9.011136861752604</v>
       </c>
       <c r="D188">
-        <v>11.57920736653657</v>
+        <v>6.621873070770511</v>
       </c>
       <c r="E188">
-        <v>13.90013183912313</v>
+        <v>8.66583836740725</v>
       </c>
       <c r="F188">
-        <v>9.531092870018865</v>
+        <v>10.44407201676939</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>8.674452116583664</v>
+        <v>12.02344839168009</v>
       </c>
       <c r="C189">
-        <v>8.673688390925753</v>
+        <v>9.06072253756172</v>
       </c>
       <c r="D189">
-        <v>11.6147619578511</v>
+        <v>6.642862705410347</v>
       </c>
       <c r="E189">
-        <v>13.94026913031536</v>
+        <v>8.693295399866418</v>
       </c>
       <c r="F189">
-        <v>9.551458052221479</v>
+        <v>10.47143351765511</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>8.703369060111593</v>
+        <v>12.07040346127935</v>
       </c>
       <c r="C190">
-        <v>8.690251565943095</v>
+        <v>9.110302031642552</v>
       </c>
       <c r="D190">
-        <v>11.65013622377331</v>
+        <v>6.663696064243481</v>
       </c>
       <c r="E190">
-        <v>13.98012164852877</v>
+        <v>8.720593879276706</v>
       </c>
       <c r="F190">
-        <v>9.571668297255179</v>
+        <v>10.49870330841423</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>8.732091248571091</v>
+        <v>12.11723699803087</v>
       </c>
       <c r="C191">
-        <v>8.706759384035268</v>
+        <v>9.159875381807936</v>
       </c>
       <c r="D191">
-        <v>11.68533206891952</v>
+        <v>6.684374299774465</v>
       </c>
       <c r="E191">
-        <v>14.01969164286373</v>
+        <v>8.747734746466556</v>
       </c>
       <c r="F191">
-        <v>9.591725799194139</v>
+        <v>10.52588463240255</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8.760619611297706</v>
+        <v>12.16395097527415</v>
       </c>
       <c r="C192">
-        <v>8.723213735558939</v>
+        <v>9.209442625784256</v>
       </c>
       <c r="D192">
-        <v>11.72035138002081</v>
+        <v>6.704898556801307</v>
       </c>
       <c r="E192">
-        <v>14.058981343955</v>
+        <v>8.774718939222485</v>
       </c>
       <c r="F192">
-        <v>9.611632721028817</v>
+        <v>10.55298067984803</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.788955112860187</v>
+        <v>12.2105473476592</v>
       </c>
       <c r="C193">
-        <v>8.739616479924599</v>
+        <v>9.259003801172518</v>
       </c>
       <c r="D193">
-        <v>11.75519602599143</v>
+        <v>6.725269972407737</v>
       </c>
       <c r="E193">
-        <v>14.09799296426976</v>
+        <v>8.801547393836076</v>
       </c>
       <c r="F193">
-        <v>9.631391195418137</v>
+        <v>10.57999458953775</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.817098755485288</v>
+        <v>12.25702805270237</v>
       </c>
       <c r="C194">
-        <v>8.755969446176078</v>
+        <v>9.308558945438062</v>
       </c>
       <c r="D194">
-        <v>11.78986785817366</v>
+        <v>6.745489675300929</v>
       </c>
       <c r="E194">
-        <v>14.13672869764432</v>
+        <v>8.8282210428148</v>
       </c>
       <c r="F194">
-        <v>9.651003325339374</v>
+        <v>10.60692944823112</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.845051566021361</v>
+        <v>12.30339501088165</v>
       </c>
       <c r="C195">
-        <v>8.772274434644617</v>
+        <v>9.358108095936647</v>
       </c>
       <c r="D195">
-        <v>11.82436871051176</v>
+        <v>6.765558786488016</v>
       </c>
       <c r="E195">
-        <v>14.17519071976457</v>
+        <v>8.854740812765648</v>
       </c>
       <c r="F195">
-        <v>9.670471184026388</v>
+        <v>10.63378829350093</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8.87281459385045</v>
+        <v>12.34965012535567</v>
       </c>
       <c r="C196">
-        <v>8.788533216522048</v>
+        <v>9.407651289929012</v>
       </c>
       <c r="D196">
-        <v>11.85870039970303</v>
+        <v>6.78547841907609</v>
       </c>
       <c r="E196">
-        <v>14.21338118841247</v>
+        <v>8.881107627220196</v>
       </c>
       <c r="F196">
-        <v>9.689796815651151</v>
+        <v>10.66057411421294</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8.900388916565079</v>
+        <v>12.39579528200871</v>
       </c>
       <c r="C197">
-        <v>8.80474753440207</v>
+        <v>9.457188564549552</v>
       </c>
       <c r="D197">
-        <v>11.89286472532102</v>
+        <v>6.80524968033934</v>
       </c>
       <c r="E197">
-        <v>14.25130224314846</v>
+        <v>8.907322407880512</v>
       </c>
       <c r="F197">
-        <v>9.708982236053886</v>
+        <v>10.68728984915189</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>8.92777564190709</v>
+        <v>12.44183234985815</v>
       </c>
       <c r="C198">
-        <v>8.820919103905082</v>
+        <v>9.506719956799291</v>
       </c>
       <c r="D198">
-        <v>11.92686347012377</v>
+        <v>6.824873668252417</v>
       </c>
       <c r="E198">
-        <v>14.28895600571754</v>
+        <v>8.933386071670208</v>
       </c>
       <c r="F198">
-        <v>9.728029432631933</v>
+        <v>10.71393839297214</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>8.954975889300337</v>
+        <v>12.4877631812526</v>
       </c>
       <c r="C199">
-        <v>8.837049613229508</v>
+        <v>9.556245503566267</v>
       </c>
       <c r="D199">
-        <v>11.96069840014116</v>
+        <v>6.844351472229584</v>
       </c>
       <c r="E199">
-        <v>14.32634458026171</v>
+        <v>8.959299530355942</v>
       </c>
       <c r="F199">
-        <v>9.746940364939313</v>
+        <v>10.74052259428312</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8.981990800746885</v>
+        <v>12.53358961168943</v>
       </c>
       <c r="C200">
-        <v>8.853140723653194</v>
+        <v>9.605765241629156</v>
       </c>
       <c r="D200">
-        <v>11.99437126486268</v>
+        <v>6.863684174438061</v>
       </c>
       <c r="E200">
-        <v>14.36347005311097</v>
+        <v>8.985063692158214</v>
       </c>
       <c r="F200">
-        <v>9.765716965482998</v>
+        <v>10.76704525754313</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.008821545371207</v>
+        <v>12.57931346014975</v>
       </c>
       <c r="C201">
-        <v>8.869194071122669</v>
+        <v>9.655279207641861</v>
       </c>
       <c r="D201">
-        <v>12.02788379739463</v>
+        <v>6.882872849185716</v>
       </c>
       <c r="E201">
-        <v>14.40033449315469</v>
+        <v>9.010679462482861</v>
       </c>
       <c r="F201">
-        <v>9.784361139581293</v>
+        <v>10.79350913797548</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.035469302546453</v>
+        <v>12.62493652931671</v>
       </c>
       <c r="C202">
-        <v>8.885211265532462</v>
+        <v>9.704787438130223</v>
       </c>
       <c r="D202">
-        <v>12.06123771470745</v>
+        <v>6.901918562915323</v>
       </c>
       <c r="E202">
-        <v>14.43693995210814</v>
+        <v>9.036147741682722</v>
       </c>
       <c r="F202">
-        <v>9.802874765880329</v>
+        <v>10.81991695336614</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.061935267770851</v>
+        <v>12.67046060610031</v>
       </c>
       <c r="C203">
-        <v>8.901193891178426</v>
+        <v>9.754289969501148</v>
       </c>
       <c r="D203">
-        <v>12.09443471775669</v>
+        <v>6.92082237419883</v>
       </c>
       <c r="E203">
-        <v>14.47328846412671</v>
+        <v>9.061469425584651</v>
       </c>
       <c r="F203">
-        <v>9.821259697205139</v>
+        <v>10.84627138000221</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.088220654790181</v>
+        <v>12.71588746071983</v>
       </c>
       <c r="C204">
-        <v>8.917143509288584</v>
+        <v>9.803786838043351</v>
       </c>
       <c r="D204">
-        <v>12.12747649159135</v>
+        <v>6.939585338418999</v>
       </c>
       <c r="E204">
-        <v>14.50938204627091</v>
+        <v>9.086645405925145</v>
       </c>
       <c r="F204">
-        <v>9.839517760394301</v>
+        <v>10.87257505328893</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.114326694376604</v>
+        <v>12.76121884766328</v>
       </c>
       <c r="C205">
-        <v>8.933061657012807</v>
+        <v>9.853278079920463</v>
       </c>
       <c r="D205">
-        <v>12.16036470560078</v>
+        <v>6.958208504399629</v>
       </c>
       <c r="E205">
-        <v>14.54522269853015</v>
+        <v>9.111676570784873</v>
       </c>
       <c r="F205">
-        <v>9.857650756736597</v>
+        <v>10.89883056234221</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.140254623335675</v>
+        <v>12.80645650573157</v>
       </c>
       <c r="C206">
-        <v>8.948949848438282</v>
+        <v>9.902763731169451</v>
       </c>
       <c r="D206">
-        <v>12.19310101374953</v>
+        <v>6.976692904542623</v>
       </c>
       <c r="E206">
-        <v>14.58081240443277</v>
+        <v>9.136563803227006</v>
       </c>
       <c r="F206">
-        <v>9.87566046287167</v>
+        <v>10.9250404587356</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.166005691778301</v>
+        <v>12.85160215813144</v>
       </c>
       <c r="C207">
-        <v>8.964809570908963</v>
+        <v>9.952243827703926</v>
       </c>
       <c r="D207">
-        <v>12.22568705465937</v>
+        <v>6.995039568006913</v>
       </c>
       <c r="E207">
-        <v>14.61615313039012</v>
+        <v>9.161307981875462</v>
       </c>
       <c r="F207">
-        <v>9.893548630601886</v>
+        <v>10.95120726104427</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.191581168318072</v>
+        <v>12.89665751245257</v>
       </c>
       <c r="C208">
-        <v>8.980642293409758</v>
+        <v>10.00171840531739</v>
       </c>
       <c r="D208">
-        <v>12.25812445158792</v>
+        <v>7.013249516323358</v>
       </c>
       <c r="E208">
-        <v>14.65124682602439</v>
+        <v>9.185909980881954</v>
       </c>
       <c r="F208">
-        <v>9.911316987253706</v>
+        <v>10.97733344818163</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.216982322334925</v>
+        <v>12.9416242609997</v>
       </c>
       <c r="C209">
-        <v>8.996449462824549</v>
+        <v>10.05118749967604</v>
       </c>
       <c r="D209">
-        <v>12.29041481299151</v>
+        <v>7.031323763401191</v>
       </c>
       <c r="E209">
-        <v>14.68609542448617</v>
+        <v>9.210370671067553</v>
       </c>
       <c r="F209">
-        <v>9.928967236622309</v>
+        <v>11.00342145927669</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.242210434003184</v>
+        <v>12.98650408096985</v>
       </c>
       <c r="C210">
-        <v>9.012232504546741</v>
+        <v>10.10065114631739</v>
       </c>
       <c r="D210">
-        <v>12.32255973246895</v>
+        <v>7.049263315534451</v>
       </c>
       <c r="E210">
-        <v>14.72070084276462</v>
+        <v>9.234690917486935</v>
       </c>
       <c r="F210">
-        <v>9.94650105876395</v>
+        <v>11.02947369357804</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.267266794447623</v>
+        <v>13.03129863446625</v>
       </c>
       <c r="C211">
-        <v>9.027992821195717</v>
+        <v>10.15010938065383</v>
       </c>
       <c r="D211">
-        <v>12.35456078890951</v>
+        <v>7.067069173762172</v>
       </c>
       <c r="E211">
-        <v>14.75506498222436</v>
+        <v>9.258871580911089</v>
       </c>
       <c r="F211">
-        <v>9.963920110288488</v>
+        <v>11.0554925233887</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.292152701934288</v>
+        <v>13.07600956869847</v>
       </c>
       <c r="C212">
-        <v>9.043731790831036</v>
+        <v>10.1995622379772</v>
       </c>
       <c r="D212">
-        <v>12.38641954647313</v>
+        <v>7.084742342263732</v>
       </c>
       <c r="E212">
-        <v>14.78918972703107</v>
+        <v>9.282913517537034</v>
       </c>
       <c r="F212">
-        <v>9.981226025335955</v>
+        <v>11.08148028353692</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>9.316869457095379</v>
+        <v>13.12063851612692</v>
       </c>
       <c r="C213">
-        <v>9.05945077878253</v>
+        <v>10.24900975345004</v>
       </c>
       <c r="D213">
-        <v>12.41813755524686</v>
+        <v>7.102283798895163</v>
       </c>
       <c r="E213">
-        <v>14.82307694574877</v>
+        <v>9.306817580053785</v>
       </c>
       <c r="F213">
-        <v>9.998420415357312</v>
+        <v>11.10743927441389</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.341418367495544</v>
+        <v>13.16518709439401</v>
       </c>
       <c r="C214">
-        <v>9.075151128034257</v>
+        <v>10.29845196210447</v>
       </c>
       <c r="D214">
-        <v>12.44971635104089</v>
+        <v>7.119694522194211</v>
       </c>
       <c r="E214">
-        <v>14.85672849105922</v>
+        <v>9.330584615284117</v>
       </c>
       <c r="F214">
-        <v>10.01550486934501</v>
+        <v>11.13337175785275</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.365800750217019</v>
+        <v>13.20965690689892</v>
       </c>
       <c r="C215">
-        <v>9.09083416254958</v>
+        <v>10.34788889884662</v>
       </c>
       <c r="D215">
-        <v>12.48115745552525</v>
+        <v>7.136975483485353</v>
       </c>
       <c r="E215">
-        <v>14.89014620044592</v>
+        <v>9.354215465811773</v>
       </c>
       <c r="F215">
-        <v>10.03248095482831</v>
+        <v>11.15927997086511</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>9.39001791999056</v>
+        <v>13.25404954262937</v>
       </c>
       <c r="C216">
-        <v>9.106501182032629</v>
+        <v>10.39732059845971</v>
       </c>
       <c r="D216">
-        <v>12.51246237642131</v>
+        <v>7.15412764690775</v>
       </c>
       <c r="E216">
-        <v>14.92333189530824</v>
+        <v>9.377710969620958</v>
       </c>
       <c r="F216">
-        <v>10.04935021764984</v>
+        <v>11.18516611628625</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>9.414071196182752</v>
+        <v>13.29836657634088</v>
       </c>
       <c r="C217">
-        <v>9.12215347205794</v>
+        <v>10.44674709559701</v>
       </c>
       <c r="D217">
-        <v>12.54363260789561</v>
+        <v>7.171151969443209</v>
       </c>
       <c r="E217">
-        <v>14.95628738164173</v>
+        <v>9.401071960935765</v>
       </c>
       <c r="F217">
-        <v>10.06611418214067</v>
+        <v>11.21103236622561</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>9.437961904139533</v>
+        <v>13.34260956867103</v>
       </c>
       <c r="C218">
-        <v>9.137792300547209</v>
+        <v>10.49616842478107</v>
       </c>
       <c r="D218">
-        <v>12.57466963048311</v>
+        <v>7.188049400944131</v>
       </c>
       <c r="E218">
-        <v>14.98901445017695</v>
+        <v>9.424299268283537</v>
       </c>
       <c r="F218">
-        <v>10.08277435212428</v>
+        <v>11.23688085811637</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>9.461691369197037</v>
+        <v>13.38678006643085</v>
       </c>
       <c r="C219">
-        <v>9.153418916805101</v>
+        <v>10.54558462040719</v>
       </c>
       <c r="D219">
-        <v>12.60557491108246</v>
+        <v>7.204820893237474</v>
       </c>
       <c r="E219">
-        <v>15.02151487646384</v>
+        <v>9.447393715888982</v>
       </c>
       <c r="F219">
-        <v>10.09933221069331</v>
+        <v>11.26271370484548</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>9.485260916547361</v>
+        <v>13.43087960261548</v>
       </c>
       <c r="C220">
-        <v>9.169034551904629</v>
+        <v>10.59499571674451</v>
       </c>
       <c r="D220">
-        <v>12.63634990345546</v>
+        <v>7.221467379195091</v>
       </c>
       <c r="E220">
-        <v>15.05379042100413</v>
+        <v>9.47035612338459</v>
       </c>
       <c r="F220">
-        <v>10.11578922033466</v>
+        <v>11.28853298898595</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>9.508671873604831</v>
+        <v>13.47490969644362</v>
       </c>
       <c r="C221">
-        <v>9.184640416765745</v>
+        <v>10.64440174793203</v>
       </c>
       <c r="D221">
-        <v>12.66699604826946</v>
+        <v>7.23798978841914</v>
       </c>
       <c r="E221">
-        <v>15.08584282934339</v>
+        <v>9.493187306177941</v>
       </c>
       <c r="F221">
-        <v>10.13214682393591</v>
+        <v>11.31434076496532</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>9.531925570729038</v>
+        <v>13.51887185364648</v>
       </c>
       <c r="C222">
-        <v>9.200237710351713</v>
+        <v>10.69380274797825</v>
       </c>
       <c r="D222">
-        <v>12.69751477317135</v>
+        <v>7.254389044321646</v>
       </c>
       <c r="E222">
-        <v>15.11767383223905</v>
+        <v>9.515888074470007</v>
       </c>
       <c r="F222">
-        <v>10.148406444564</v>
+        <v>11.3401390548499</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>9.555023333827046</v>
+        <v>13.5627675666363</v>
       </c>
       <c r="C223">
-        <v>9.215827613519659</v>
+        <v>10.74319875076278</v>
       </c>
       <c r="D223">
-        <v>12.72790749270485</v>
+        <v>7.270666063565352</v>
       </c>
       <c r="E223">
-        <v>15.14928514578018</v>
+        <v>9.538459233988007</v>
       </c>
       <c r="F223">
-        <v>10.16456948554624</v>
+        <v>11.36592985656861</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>9.577966488975267</v>
+        <v>13.60659831453864</v>
       </c>
       <c r="C224">
-        <v>9.231411291202992</v>
+        <v>10.7925897900368</v>
       </c>
       <c r="D224">
-        <v>12.75817560902298</v>
+        <v>7.286821756105463</v>
       </c>
       <c r="E224">
-        <v>15.18067847112273</v>
+        <v>9.560901585891486</v>
       </c>
       <c r="F224">
-        <v>10.18063733147324</v>
+        <v>11.39171514268303</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>9.60075636456361</v>
+        <v>13.65036556316351</v>
       </c>
       <c r="C225">
-        <v>9.246989890769886</v>
+        <v>10.84197589942089</v>
       </c>
       <c r="D225">
-        <v>12.78832051163601</v>
+        <v>7.302857025231377</v>
       </c>
       <c r="E225">
-        <v>15.21185549541108</v>
+        <v>9.583215926989986</v>
       </c>
       <c r="F225">
-        <v>10.19661134798132</v>
+        <v>11.41749685889299</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>9.62339428396408</v>
+        <v>13.69407076551295</v>
       </c>
       <c r="C226">
-        <v>9.262564545438368</v>
+        <v>10.89135711240468</v>
       </c>
       <c r="D226">
-        <v>12.81834357756136</v>
+        <v>7.318772768583647</v>
       </c>
       <c r="E226">
-        <v>15.24281789135425</v>
+        <v>9.605403049021437</v>
       </c>
       <c r="F226">
-        <v>10.21249288179563</v>
+        <v>11.44327692306523</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>9.645881568628816</v>
+        <v>13.73771536166954</v>
       </c>
       <c r="C227">
-        <v>9.278136374109385</v>
+        <v>10.94073346234761</v>
       </c>
       <c r="D227">
-        <v>12.84824617139794</v>
+        <v>7.334569876502723</v>
       </c>
       <c r="E227">
-        <v>15.27356731746763</v>
+        <v>9.627463739227363</v>
       </c>
       <c r="F227">
-        <v>10.22828326172296</v>
+        <v>11.46905722753318</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>9.66821953882941</v>
+        <v>13.78130077892189</v>
       </c>
       <c r="C228">
-        <v>9.293706480596127</v>
+        <v>10.99010498247967</v>
       </c>
       <c r="D228">
-        <v>12.87802964584737</v>
+        <v>7.350249232393796</v>
       </c>
       <c r="E228">
-        <v>15.30410541824457</v>
+        <v>9.649398780314439</v>
       </c>
       <c r="F228">
-        <v>10.24398379844026</v>
+        <v>11.4948396434382</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>9.690409513043011</v>
+        <v>13.82482843172361</v>
       </c>
       <c r="C229">
-        <v>9.309275953849028</v>
+        <v>11.03947170589929</v>
       </c>
       <c r="D229">
-        <v>12.90769534153556</v>
+        <v>7.36581171357988</v>
       </c>
       <c r="E229">
-        <v>15.33443382426387</v>
+        <v>9.671208950546553</v>
       </c>
       <c r="F229">
-        <v>10.25959578450584</v>
+        <v>11.52062601674326</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>9.712452803970525</v>
+        <v>13.86829972229667</v>
       </c>
       <c r="C230">
-        <v>9.324845865239801</v>
+        <v>11.08883366557317</v>
       </c>
       <c r="D230">
-        <v>12.93724458704385</v>
+        <v>7.381258190964954</v>
       </c>
       <c r="E230">
-        <v>15.36455415226225</v>
+        <v>9.692895023263649</v>
       </c>
       <c r="F230">
-        <v>10.27512049533558</v>
+        <v>11.54641816878878</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>9.734350721421064</v>
+        <v>13.91171604039367</v>
       </c>
       <c r="C231">
-        <v>9.340417277229136</v>
+        <v>11.13819089433687</v>
       </c>
       <c r="D231">
-        <v>12.96667869927438</v>
+        <v>7.396589529077906</v>
       </c>
       <c r="E231">
-        <v>15.39446800532874</v>
+        <v>9.714457767302488</v>
       </c>
       <c r="F231">
-        <v>10.29055918900004</v>
+        <v>11.57221789478577</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>9.756104574255817</v>
+        <v>13.95507876338485</v>
       </c>
       <c r="C232">
-        <v>9.355991237027371</v>
+        <v>11.18754342489576</v>
       </c>
       <c r="D232">
-        <v>12.99599898363002</v>
+        <v>7.411806586116493</v>
       </c>
       <c r="E232">
-        <v>15.42417697299677</v>
+        <v>9.735897947045764</v>
       </c>
       <c r="F232">
-        <v>10.30591310620857</v>
+        <v>11.59802697253726</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>9.777715663756119</v>
+        <v>13.99838925644428</v>
       </c>
       <c r="C233">
-        <v>9.371568778709939</v>
+        <v>11.23689128982282</v>
       </c>
       <c r="D233">
-        <v>13.02520673400406</v>
+        <v>7.42691021343159</v>
       </c>
       <c r="E233">
-        <v>15.45368263105778</v>
+        <v>9.757216322423004</v>
       </c>
       <c r="F233">
-        <v>10.32118347126431</v>
+        <v>11.62384715600813</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>9.799185287507324</v>
+        <v>14.04164887287692</v>
       </c>
       <c r="C234">
-        <v>9.387150921303549</v>
+        <v>11.28623452155845</v>
       </c>
       <c r="D234">
-        <v>13.05430323234223</v>
+        <v>7.441901255805146</v>
       </c>
       <c r="E234">
-        <v>15.48298654237977</v>
+        <v>9.778413648518951</v>
       </c>
       <c r="F234">
-        <v>10.33637149187117</v>
+        <v>11.64968017747679</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>9.820514741050211</v>
+        <v>14.08485895401739</v>
       </c>
       <c r="C235">
-        <v>9.402738671893522</v>
+        <v>11.33557315241124</v>
       </c>
       <c r="D235">
-        <v>13.08328975009681</v>
+        <v>7.456780553100149</v>
       </c>
       <c r="E235">
-        <v>15.51209025650967</v>
+        <v>9.799490675969157</v>
       </c>
       <c r="F235">
-        <v>10.3514783590952</v>
+        <v>11.67552774438364</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>9.841705314135758</v>
+        <v>14.12802082888893</v>
       </c>
       <c r="C236">
-        <v>9.418333026499953</v>
+        <v>11.3849072145585</v>
       </c>
       <c r="D236">
-        <v>13.11216754744584</v>
+        <v>7.471548938353751</v>
       </c>
       <c r="E236">
-        <v>15.54099530993279</v>
+        <v>9.820448151003399</v>
       </c>
       <c r="F236">
-        <v>10.36650524829504</v>
+        <v>11.70139154809772</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>9.862758288614641</v>
+        <v>14.17113581527429</v>
       </c>
       <c r="C237">
-        <v>9.433934968249803</v>
+        <v>11.43423674004452</v>
       </c>
       <c r="D237">
-        <v>13.14093787364729</v>
+        <v>7.486207238453439</v>
       </c>
       <c r="E237">
-        <v>15.56970322608579</v>
+        <v>9.841286815370184</v>
       </c>
       <c r="F237">
-        <v>10.38145331893156</v>
+        <v>11.72727325821709</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>9.883674941288824</v>
+        <v>14.21420521941441</v>
       </c>
       <c r="C238">
-        <v>9.44954546814348</v>
+        <v>11.48356176078051</v>
       </c>
       <c r="D238">
-        <v>13.16960196718826</v>
+        <v>7.500756274178717</v>
       </c>
       <c r="E238">
-        <v>15.59821551560146</v>
+        <v>9.862007406149148</v>
       </c>
       <c r="F238">
-        <v>10.39632371454974</v>
+        <v>11.75317452465881</v>
       </c>
     </row>
   </sheetData>
